--- a/ISEN_Bulletin_Excel.xlsx
+++ b/ISEN_Bulletin_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Framework_Arthur\Downloads\Project suite\Bulletins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354B399B-E70B-496D-9863-3A3139E83E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E059D7-41B5-4A35-9655-0E4AFF4D550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" tabRatio="851" xr2:uid="{F3516D6A-EC28-40DF-9BC6-39873143E270}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="851" firstSheet="6" activeTab="11" xr2:uid="{F3516D6A-EC28-40DF-9BC6-39873143E270}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="21" r:id="rId1"/>
@@ -1103,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1123,46 +1123,31 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -1278,13 +1263,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1299,56 +1277,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3188,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0545D5-B693-46C9-99FB-DE6A8E65116F}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3372,153 +3301,113 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <f>AVERAGE(A11,B11)</f>
         <v>0</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="21">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18">
         <f>AVERAGE(C11,D11)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21">
+      <c r="D13" s="19"/>
+      <c r="E13" s="18">
         <f>AVERAGE(E11,F11)</f>
         <v>10</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="21">
+      <c r="F13" s="19"/>
+      <c r="G13" s="18">
         <f>AVERAGE(G11,H11)</f>
         <v>10</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17">
+      <c r="H13" s="19"/>
+      <c r="I13" s="20">
         <f>AVERAGE(I11,J11)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="15" t="str">
         <f>IF(E11+F11&gt;=26,"OUI","NON")</f>
         <v>NON</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="15" t="str">
         <f>IF(E11+F11+G11+H11&gt;=52,"OUI","NON")</f>
         <v>NON</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A9:J11">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="between">
       <formula>10</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="between">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:J13">
-    <cfRule type="expression" dxfId="33" priority="19">
-      <formula>AND(I11&gt;=10, J11&gt;=10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="20">
-      <formula>OR(I11&lt;10, J11&lt;10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
-    <cfRule type="expression" dxfId="31" priority="16">
-      <formula>AND(G11&gt;=10, H11&gt;=10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="17">
-      <formula>OR(G11&lt;10, H11&lt;10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F13">
-    <cfRule type="expression" dxfId="29" priority="11">
-      <formula>AND(E11&gt;=10, F11&gt;=10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14">
-      <formula>OR(E11&lt;10, F11&lt;10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D13">
-    <cfRule type="expression" dxfId="27" priority="10">
-      <formula>AND(C11&gt;=10, D11&gt;=10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="12">
-      <formula>OR(C11&lt;10, D11&lt;10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="25" priority="7">
+  <conditionalFormatting sqref="A13:J13">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>AND(A11&gt;=10, B11&gt;=10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>OR(A11&lt;10, B11&lt;10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="23" priority="3">
+  <conditionalFormatting sqref="B15:B16">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>B15="OUI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>B15="NON"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="21" priority="1">
-      <formula>B16="OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>B16="NON"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3719,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1C634D-F745-4B98-9126-F519BA81ACB8}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3784,7 +3673,7 @@
       <c r="D4" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4">
         <f>(E5*F5+E6*F6+E7*F7+E8*F8+E9*F9+E10*F10)/(C4)</f>
         <v>10</v>
       </c>
@@ -4362,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0528F8-B7FA-4F91-A9BC-D31C0485A41D}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4504,7 +4393,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23" t="str">
+      <c r="A9" s="7" t="str">
         <f>IF('Read me'!B4&lt;&gt;"CIR","Analyse de données","Outil numérique")</f>
         <v>Analyse de données</v>
       </c>
@@ -4556,8 +4445,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="14" t="str">
-        <f>IF('Read me'!B4&lt;&gt;"CIR","Base de données","autre")</f>
+      <c r="A11" s="22" t="str">
+        <f>IF('Read me'!B4&lt;&gt;"CIR","Base de données",IF('Read me'!B3="Brest","Framework",IF('Read me'!B3="Nantes","Programmation linéaire",IF('Read me'!B3="Caen","Design pattern","autre"))))</f>
         <v>Base de données</v>
       </c>
       <c r="B11">
@@ -4577,7 +4466,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="19" t="str">
+      <c r="A12" t="str">
         <f>IF('Read me'!B4&lt;&gt;"CIR","DEV WEB","Admin Linux")</f>
         <v>DEV WEB</v>
       </c>
@@ -5928,7 +5817,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="19" t="s">
+      <c r="A13" t="s">
         <v>227</v>
       </c>
       <c r="B13">
@@ -6897,7 +6786,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7575,7 +7464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC01EE8D-135E-4C8B-85F7-572A4296D677}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7763,7 +7652,7 @@
         <f>IF('Read me'!B5="OUI",0,30)</f>
         <v>30</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10">
         <f>IF(G10&gt;=10,H10,0)</f>
         <v>30</v>
       </c>
@@ -7834,7 +7723,7 @@
       <c r="A17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17">
         <f>I4+I7+I10</f>
         <v>30</v>
       </c>
@@ -7851,69 +7740,69 @@
       <formula>B15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="16" priority="1">
+      <formula>B17=B16</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="2">
+      <formula>B17&lt;B16</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>G7&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>G7&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>G7&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>G10&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>G10&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>G10&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>I7=H7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>I7&lt;H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>I10=H10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>I10&lt;H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>B17=B16</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>B17&lt;B16</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISEN_Bulletin_Excel.xlsx
+++ b/ISEN_Bulletin_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Framework_Arthur\Downloads\Project suite\Bulletins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E059D7-41B5-4A35-9655-0E4AFF4D550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EFB5D9-5658-41C4-ADB8-6C19147BB0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="851" firstSheet="6" activeTab="11" xr2:uid="{F3516D6A-EC28-40DF-9BC6-39873143E270}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" tabRatio="851" xr2:uid="{F3516D6A-EC28-40DF-9BC6-39873143E270}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="21" r:id="rId1"/>
@@ -1103,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1124,12 +1124,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,7 +1136,12 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3117,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0545D5-B693-46C9-99FB-DE6A8E65116F}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3301,53 +3300,53 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="17"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <f>AVERAGE(A11,B11)</f>
         <v>0</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="18">
+      <c r="B13" s="17"/>
+      <c r="C13" s="16">
         <f>AVERAGE(C11,D11)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18">
+      <c r="D13" s="17"/>
+      <c r="E13" s="16">
         <f>AVERAGE(E11,F11)</f>
         <v>10</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18">
+      <c r="F13" s="17"/>
+      <c r="G13" s="16">
         <f>AVERAGE(G11,H11)</f>
         <v>10</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20">
+      <c r="H13" s="17"/>
+      <c r="I13" s="18">
         <f>AVERAGE(I11,J11)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3372,16 +3371,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A9:J11">
@@ -3608,7 +3607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1C634D-F745-4B98-9126-F519BA81ACB8}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -4445,7 +4444,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="22" t="str">
+      <c r="A11" t="str">
         <f>IF('Read me'!B4&lt;&gt;"CIR","Base de données",IF('Read me'!B3="Brest","Framework",IF('Read me'!B3="Nantes","Programmation linéaire",IF('Read me'!B3="Caen","Design pattern","autre"))))</f>
         <v>Base de données</v>
       </c>
@@ -4947,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B01654-16B6-483E-8D72-B459704D0CFF}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5294,7 +5293,7 @@
         <v>193</v>
       </c>
       <c r="E20">
-        <f>(E21*F21+E22*F22+E23*F23+E24*F24+E25*F25+E26*F26+E27*F27+E28*F28+(E29/990)*20*F29+E30*F30)/(F21+F22+F23+F24+F25+F26+F27+F28+F29+F30)</f>
+        <f>(E21*F21+E22*F22+E23*F23+E24*F24+E25*F25+E26*F26+E27*F27+E28*F28+E30*F30)/(F21+F22+F23+F24+F25+F26+F27+F28+F30)</f>
         <v>10</v>
       </c>
       <c r="G20">
@@ -5440,7 +5439,7 @@
         <v>495</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5578,7 +5577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AA0C06-A329-4A28-B37A-6AA9315D2ED6}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/ISEN_Bulletin_Excel.xlsx
+++ b/ISEN_Bulletin_Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Framework_Arthur\Downloads\Project suite\Bulletins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EFB5D9-5658-41C4-ADB8-6C19147BB0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51768BC5-490E-4E65-8B4A-C4A511983BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" tabRatio="851" xr2:uid="{F3516D6A-EC28-40DF-9BC6-39873143E270}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="303">
   <si>
     <t>Titre</t>
   </si>
@@ -968,6 +968,12 @@
   </si>
   <si>
     <t>moyennearrondie</t>
+  </si>
+  <si>
+    <t>nombre crédits ECTS validés</t>
+  </si>
+  <si>
+    <t>nombre crédits ECTS encore à valider</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1124,6 +1130,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,17 +1148,852 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="146">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1351,7 +2198,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2762,14 +3609,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11391</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>773441</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>136207</xdr:rowOff>
+      <xdr:colOff>773440</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>140303</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2798,7 +3645,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3114,15 +3961,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0545D5-B693-46C9-99FB-DE6A8E65116F}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.9453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3300,53 +4147,53 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="16">
+      <c r="A13" s="18">
         <f>AVERAGE(A11,B11)</f>
         <v>0</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18">
         <f>AVERAGE(C11,D11)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16">
+      <c r="D13" s="19"/>
+      <c r="E13" s="18">
         <f>AVERAGE(E11,F11)</f>
         <v>10</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16">
+      <c r="F13" s="19"/>
+      <c r="G13" s="18">
         <f>AVERAGE(G11,H11)</f>
         <v>10</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18">
+      <c r="H13" s="19"/>
+      <c r="I13" s="20">
         <f>AVERAGE(I11,J11)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3369,43 +4216,61 @@
       </c>
       <c r="D16" s="15"/>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="22">
+        <f>'Bulletin S5'!B38 + 'Bulletin S6'!B38 + 'Bulletin S7'!B36 + 'Bulletin S8'!B22 + 'Bulletin S9'!B35 + 'Bulletin S10'!B17</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18">
+        <f>300-B17</f>
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A9:J11">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="21" operator="between">
       <formula>10</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="22" operator="between">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:J13">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="143" priority="7">
       <formula>AND(A11&gt;=10, B11&gt;=10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="142" priority="8">
       <formula>OR(A11&lt;10, B11&lt;10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="141" priority="1">
       <formula>B15="OUI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="140" priority="2">
       <formula>B15="NON"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3446,7 +4311,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.3671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
@@ -3527,7 +4392,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="26.1015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.9453125" bestFit="1" customWidth="1"/>
@@ -3607,11 +4472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1C634D-F745-4B98-9126-F519BA81ACB8}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.3671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.578125" bestFit="1" customWidth="1"/>
@@ -4185,6 +5050,82 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>I4&lt;H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>I4=H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>I12&lt;H12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>I12=H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>I24&lt;H24</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>I24=H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>B38&lt;B37</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>B38=B37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>G12&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>G12&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>G12&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>G24&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>G24&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>G24&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>B36&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>B36&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B36&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4197,7 +5138,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="51.20703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.734375" bestFit="1" customWidth="1"/>
@@ -4250,15 +5191,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0528F8-B7FA-4F91-A9BC-D31C0485A41D}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="34.20703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.15625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.83984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.9453125" bestFit="1" customWidth="1"/>
@@ -4881,6 +5822,120 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="49" priority="30">
+      <formula>I4&lt;H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="29">
+      <formula>I4=H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="47" priority="28">
+      <formula>I9&lt;H9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="27">
+      <formula>I9=H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="45" priority="26">
+      <formula>I23&lt;H23</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="25">
+      <formula>I23=H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="43" priority="24">
+      <formula>I28&lt;H28</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="23">
+      <formula>I28=H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="41" priority="22">
+      <formula>I14&lt;H14</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="21">
+      <formula>I14=H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="39" priority="20">
+      <formula>B38&lt;B37</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="19">
+      <formula>B38=B37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="37" priority="18">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="17">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="16">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="34" priority="15">
+      <formula>G9&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="14">
+      <formula>G9&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="13">
+      <formula>G9&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="31" priority="12">
+      <formula>G14&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="11">
+      <formula>G14&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="10">
+      <formula>G14&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="28" priority="9">
+      <formula>G23&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="8">
+      <formula>G23&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="7">
+      <formula>G23&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="expression" dxfId="25" priority="6">
+      <formula>G28&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="5">
+      <formula>G28&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="4">
+      <formula>G28&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="22" priority="3">
+      <formula>B36&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="2">
+      <formula>B36&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>B36&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4893,7 +5948,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="23.89453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.734375" bestFit="1" customWidth="1"/>
@@ -4946,11 +6001,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B01654-16B6-483E-8D72-B459704D0CFF}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.3671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.9453125" bestFit="1" customWidth="1"/>
@@ -5512,6 +6567,82 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="69" priority="22">
+      <formula>I4&lt;H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="21">
+      <formula>I4=H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="67" priority="18">
+      <formula>I14&lt;H14</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="17">
+      <formula>I14=H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="65" priority="16">
+      <formula>I20&lt;H20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="15">
+      <formula>I20=H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="63" priority="13">
+      <formula>B36=B35</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="14">
+      <formula>B36&lt;B35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="61" priority="12">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="11">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="10">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="58" priority="9">
+      <formula>G14&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="8">
+      <formula>G14&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="7">
+      <formula>G14&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="55" priority="6">
+      <formula>G20&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="5">
+      <formula>G20&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="4">
+      <formula>G20&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="52" priority="3">
+      <formula>B34&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="2">
+      <formula>B34&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="1">
+      <formula>B34&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5524,7 +6655,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="32.9453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.734375" bestFit="1" customWidth="1"/>
@@ -5578,10 +6709,10 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.3671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.41796875" bestFit="1" customWidth="1"/>
@@ -5710,7 +6841,7 @@
       </c>
       <c r="C8">
         <f>C9+C10+C11+C12+C13</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>193</v>
@@ -5823,7 +6954,7 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -5833,7 +6964,7 @@
       </c>
       <c r="F13">
         <f>C13</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5898,7 +7029,7 @@
       </c>
       <c r="C18">
         <f>C15+C8+C4</f>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5938,6 +7069,82 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="89" priority="20">
+      <formula>I4&lt;H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="19">
+      <formula>I4=H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="87" priority="18">
+      <formula>I8&lt;H8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="17">
+      <formula>I8=H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="85" priority="16">
+      <formula>I15&lt;H15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="15">
+      <formula>I15=H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="83" priority="14">
+      <formula>B22&lt;B21</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="13">
+      <formula>B22=B21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="81" priority="12">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="11">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="10">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="78" priority="9">
+      <formula>G8&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="8">
+      <formula>G8&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="7">
+      <formula>G8&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="75" priority="6">
+      <formula>G15&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="5">
+      <formula>G15&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="4">
+      <formula>G15&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="72" priority="3">
+      <formula>B20&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="2">
+      <formula>B20&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="1">
+      <formula>B20&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5962,7 +7169,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="39.5234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.9453125" bestFit="1" customWidth="1"/>
@@ -6018,7 +7225,7 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="43.1015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.62890625" bestFit="1" customWidth="1"/>
@@ -6784,16 +7991,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C584161-BE4A-4441-9A45-CB10429972EF}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="39.5234375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.05078125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.05078125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.05078125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
@@ -7399,6 +8606,120 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="119" priority="31">
+      <formula>I4&lt;H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="29">
+      <formula>I4=H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="117" priority="30">
+      <formula>I11=H11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="28">
+      <formula>I11&lt;H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="115" priority="27">
+      <formula>I21&lt;H21</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="26">
+      <formula>I21=H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="113" priority="25">
+      <formula>I16&lt;H16</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="24">
+      <formula>I16=H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="111" priority="23">
+      <formula>I26=H26</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="22">
+      <formula>I26&lt;H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="109" priority="21">
+      <formula>B35=B34</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="20">
+      <formula>B35&lt;B34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="107" priority="18">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="17">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="19">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="104" priority="14">
+      <formula>G11&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="15">
+      <formula>G11&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="16">
+      <formula>G11&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="101" priority="12">
+      <formula>G16&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="11">
+      <formula>G16&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="10">
+      <formula>G16&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="98" priority="9">
+      <formula>G21&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="8">
+      <formula>G21&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="7">
+      <formula>G21&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="expression" dxfId="93" priority="6">
+      <formula>G26&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="5">
+      <formula>G26&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="4">
+      <formula>G26&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="95" priority="3">
+      <formula>B33&lt;10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="2">
+      <formula>B33&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="1">
+      <formula>B33&gt;11</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7411,7 +8732,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="37.15625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.9453125" bestFit="1" customWidth="1"/>
@@ -7463,11 +8784,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC01EE8D-135E-4C8B-85F7-572A4296D677}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36.7890625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
@@ -7729,78 +9050,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="139" priority="9">
       <formula>B15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="138" priority="10">
       <formula>B15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="137" priority="11">
       <formula>B15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="136" priority="1">
       <formula>B17=B16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="135" priority="2">
       <formula>B17&lt;B16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="134" priority="18">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="133" priority="19">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="132" priority="20">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="131" priority="15">
       <formula>G7&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="130" priority="16">
       <formula>G7&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="129" priority="17">
       <formula>G7&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="128" priority="12">
       <formula>G10&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="127" priority="13">
       <formula>G10&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="126" priority="14">
       <formula>G10&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="125" priority="7">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="124" priority="8">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="123" priority="5">
       <formula>I7=H7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="122" priority="6">
       <formula>I7&lt;H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="121" priority="3">
       <formula>I10=H10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="120" priority="4">
       <formula>I10&lt;H10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7816,7 +9137,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="43.3125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.9453125" bestFit="1" customWidth="1"/>
@@ -8313,7 +9634,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="7" max="7" width="33.3671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.26171875" bestFit="1" customWidth="1"/>
@@ -8396,7 +9717,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="59.68359375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.9453125" customWidth="1"/>
@@ -8844,7 +10165,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.3671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
@@ -8862,7 +10183,7 @@
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="39" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" ht="58.5" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -8927,7 +10248,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="42.89453125" customWidth="1"/>
     <col min="5" max="5" width="12.9453125" bestFit="1" customWidth="1"/>
@@ -8983,7 +10304,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.3671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
@@ -9066,7 +10387,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="40.3125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.9453125" bestFit="1" customWidth="1"/>

--- a/ISEN_Bulletin_Excel.xlsx
+++ b/ISEN_Bulletin_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Framework_Arthur\Downloads\Project suite\Bulletins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51768BC5-490E-4E65-8B4A-C4A511983BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA6B10A-2CF7-4E79-BD8A-D08953ED8D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" tabRatio="851" xr2:uid="{F3516D6A-EC28-40DF-9BC6-39873143E270}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="Notes S4" sheetId="7" r:id="rId9"/>
     <sheet name="Bulletin S4" sheetId="8" r:id="rId10"/>
     <sheet name="Notes S5" sheetId="9" r:id="rId11"/>
-    <sheet name="Bulletin S5" sheetId="10" r:id="rId12"/>
+    <sheet name="Bulletin S5" sheetId="23" r:id="rId12"/>
     <sheet name="Notes S6" sheetId="11" r:id="rId13"/>
     <sheet name="Bulletin S6" sheetId="12" r:id="rId14"/>
     <sheet name="Notes S7" sheetId="13" r:id="rId15"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="301">
   <si>
     <t>Titre</t>
   </si>
@@ -840,12 +840,6 @@
   </si>
   <si>
     <t xml:space="preserve">Probabilités </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algo et langage C </t>
   </si>
   <si>
     <t>note DS</t>
@@ -1130,12 +1124,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1148,12 +1137,24 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="146">
+  <dxfs count="166">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1164,6 +1165,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1171,6 +1179,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1178,6 +1207,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1192,6 +1228,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1199,6 +1242,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1206,6 +1256,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1213,6 +1284,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1220,6 +1305,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1227,6 +1319,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1234,6 +1375,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1241,6 +1389,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1255,6 +1410,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1269,6 +1431,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1283,6 +1452,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1290,6 +1466,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1297,6 +1480,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1304,6 +1501,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1311,6 +1557,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1318,6 +1571,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1325,6 +1585,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1332,6 +1599,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1346,6 +1620,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1353,6 +1634,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1367,6 +1655,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1374,6 +1697,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1381,6 +1711,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1388,6 +1725,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1395,6 +1739,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1409,6 +1760,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1416,6 +1774,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1493,6 +1858,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1507,6 +1879,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1514,6 +1893,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1521,6 +1907,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1528,6 +1921,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1535,6 +1935,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1542,6 +1949,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1556,6 +1970,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1563,6 +1984,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1577,6 +2005,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1584,6 +2047,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1591,6 +2061,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1598,6 +2082,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1605,6 +2096,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1619,378 +2117,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4001,7 +4135,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>235</v>
@@ -4147,58 +4281,58 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="22"/>
+      <c r="I12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="17"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <f>AVERAGE(A11,B11)</f>
         <v>0</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="18">
+      <c r="B13" s="18"/>
+      <c r="C13" s="17">
         <f>AVERAGE(C11,D11)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18">
+      <c r="D13" s="18"/>
+      <c r="E13" s="17">
         <f>AVERAGE(E11,F11)</f>
         <v>10</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18">
+      <c r="F13" s="18"/>
+      <c r="G13" s="17">
         <f>AVERAGE(G11,H11)</f>
         <v>10</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20">
+      <c r="H13" s="18"/>
+      <c r="I13" s="19">
         <f>AVERAGE(I11,J11)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B15" s="15" t="str">
         <f>IF(E11+F11&gt;=26,"OUI","NON")</f>
@@ -4208,7 +4342,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B16" s="15" t="str">
         <f>IF(E11+F11+G11+H11&gt;=52,"OUI","NON")</f>
@@ -4218,16 +4352,16 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B17" s="22">
+        <v>299</v>
+      </c>
+      <c r="B17" s="16">
         <f>'Bulletin S5'!B38 + 'Bulletin S6'!B38 + 'Bulletin S7'!B36 + 'Bulletin S8'!B22 + 'Bulletin S9'!B35 + 'Bulletin S10'!B17</f>
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B18">
         <f>300-B17</f>
@@ -4236,41 +4370,41 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A9:J11">
-    <cfRule type="cellIs" dxfId="145" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="21" operator="between">
       <formula>10</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="164" priority="22" operator="between">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:J13">
-    <cfRule type="expression" dxfId="143" priority="7">
+    <cfRule type="expression" dxfId="163" priority="7">
       <formula>AND(A11&gt;=10, B11&gt;=10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="8">
+    <cfRule type="expression" dxfId="162" priority="8">
       <formula>OR(A11&lt;10, B11&lt;10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="141" priority="1">
+    <cfRule type="expression" dxfId="161" priority="1">
       <formula>B15="OUI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="2">
+    <cfRule type="expression" dxfId="160" priority="2">
       <formula>B15="NON"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4323,7 +4457,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -4332,26 +4466,26 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>222</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4371,12 +4505,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +4559,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>128</v>
@@ -4434,7 +4568,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4448,7 +4582,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4469,11 +4603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1C634D-F745-4B98-9126-F519BA81ACB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD1E8FF-BACC-4AC9-A205-46AC401C6E4D}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4500,26 +4634,26 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4527,8 +4661,8 @@
         <v>243</v>
       </c>
       <c r="B4">
-        <f>B5+B6+B20+B21</f>
-        <v>105</v>
+        <f>B5+B6+B7+B10</f>
+        <v>135</v>
       </c>
       <c r="C4">
         <f>C5+C6+C7+C10</f>
@@ -4607,7 +4741,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -4618,7 +4752,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -4629,7 +4763,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -4662,14 +4796,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B12">
-        <f>B13+B15</f>
-        <v>105</v>
+        <f>B13+B15+B20+B22</f>
+        <v>165</v>
       </c>
       <c r="C12">
-        <f>C13+C15+C20+C21</f>
+        <f>C13+C15+C20+C22</f>
         <v>11</v>
       </c>
       <c r="D12" t="s">
@@ -4703,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -4714,7 +4848,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -4735,7 +4869,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -4746,7 +4880,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -4757,7 +4891,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -4768,7 +4902,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -4779,7 +4913,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -4789,55 +4923,60 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="14" t="s">
+      <c r="A20" t="str">
+        <f>IF('Read me'!B4&lt;&gt;"CIR","Algo et langage C","Théorie des graphes")</f>
+        <v>Algo et langage C</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <f>F20+F21</f>
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
         <v>261</v>
       </c>
-      <c r="B20">
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="str">
+        <f>IF('Read me'!B4&lt;&gt;"CIR","Linux"," ")</f>
+        <v>Linux</v>
+      </c>
+      <c r="B22">
+        <f>IF('Read me'!B4&lt;&gt;"CIR",15,)</f>
         <v>15</v>
       </c>
-      <c r="C20">
-        <f>F20</f>
+      <c r="C22">
+        <f>IF('Read me'!B4&lt;&gt;"CIR",1,)</f>
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <f>F21+F22</f>
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" t="s">
-        <v>264</v>
+      <c r="D22" t="str">
+        <f>IF('Read me'!B4&lt;&gt;"CIR","note"," ")</f>
+        <v>note</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="F22">
+        <f>IF('Read me'!B4&lt;&gt;"CIR",1,)</f>
         <v>1</v>
       </c>
     </row>
@@ -4884,7 +5023,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -4895,7 +5034,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -4906,7 +5045,7 @@
     </row>
     <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -4927,7 +5066,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -4938,7 +5077,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -4949,7 +5088,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E30">
         <v>10</v>
@@ -4970,7 +5109,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -5006,7 +5145,7 @@
       </c>
       <c r="B34">
         <f>B24+B12+B4</f>
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="C34">
         <f>C4+C12+C24</f>
@@ -5033,7 +5172,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B37">
         <f>H4+H12+H24</f>
@@ -5042,7 +5181,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B38">
         <f>I4+I12+I24</f>
@@ -5050,80 +5189,80 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="139" priority="1">
+      <formula>B36&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="2">
+      <formula>B36&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="3">
+      <formula>B36&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="136" priority="13">
+      <formula>B38=B37</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="14">
+      <formula>B38&lt;B37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="134" priority="10">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="11">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="12">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="131" priority="7">
+      <formula>G12&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="8">
+      <formula>G12&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="9">
+      <formula>G12&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="expression" dxfId="128" priority="4">
+      <formula>G24&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="5">
+      <formula>G24&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="6">
+      <formula>G24&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="125" priority="19">
+      <formula>I4=H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="20">
       <formula>I4&lt;H4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>I4=H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="123" priority="17">
+      <formula>I12=H12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="18">
       <formula>I12&lt;H12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>I12=H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="121" priority="15">
+      <formula>I24=H24</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="16">
       <formula>I24&lt;H24</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>I24=H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>B38&lt;B37</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>B38=B37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>G4&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>G4&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>G4&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>G12&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>G12&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>G12&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>G24&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>G24&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>G24&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>B36&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>B36&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>B36&gt;11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5191,8 +5330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0528F8-B7FA-4F91-A9BC-D31C0485A41D}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5219,26 +5358,26 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5805,7 +5944,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B37">
         <f>H4+H9+H14+H23+H28</f>
@@ -5814,7 +5953,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B38">
         <f>I4+I9+I14+I23+I28</f>
@@ -5822,118 +5961,118 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="119" priority="1">
+      <formula>B36&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="2">
+      <formula>B36&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="3">
+      <formula>B36&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="116" priority="19">
+      <formula>B38=B37</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="20">
+      <formula>B38&lt;B37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="114" priority="16">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="17">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="18">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="111" priority="13">
+      <formula>G9&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="14">
+      <formula>G9&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="15">
+      <formula>G9&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="108" priority="10">
+      <formula>G14&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="11">
+      <formula>G14&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="12">
+      <formula>G14&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="105" priority="7">
+      <formula>G23&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="8">
+      <formula>G23&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="9">
+      <formula>G23&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="expression" dxfId="102" priority="4">
+      <formula>G28&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="5">
+      <formula>G28&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="6">
+      <formula>G28&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="49" priority="30">
+    <cfRule type="expression" dxfId="99" priority="29">
+      <formula>I4=H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="30">
       <formula>I4&lt;H4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="29">
-      <formula>I4=H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="47" priority="28">
+    <cfRule type="expression" dxfId="97" priority="27">
+      <formula>I9=H9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="28">
       <formula>I9&lt;H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="27">
-      <formula>I9=H9</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="95" priority="21">
+      <formula>I14=H14</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="22">
+      <formula>I14&lt;H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="45" priority="26">
+    <cfRule type="expression" dxfId="93" priority="25">
+      <formula>I23=H23</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="26">
       <formula>I23&lt;H23</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="25">
-      <formula>I23=H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="43" priority="24">
+    <cfRule type="expression" dxfId="91" priority="23">
+      <formula>I28=H28</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="24">
       <formula>I28&lt;H28</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="23">
-      <formula>I28=H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="41" priority="22">
-      <formula>I14&lt;H14</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="21">
-      <formula>I14=H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="39" priority="20">
-      <formula>B38&lt;B37</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="19">
-      <formula>B38=B37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="37" priority="18">
-      <formula>G4&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="17">
-      <formula>G4&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="16">
-      <formula>G4&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="34" priority="15">
-      <formula>G9&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="14">
-      <formula>G9&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="13">
-      <formula>G9&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="31" priority="12">
-      <formula>G14&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="11">
-      <formula>G14&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="10">
-      <formula>G14&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="28" priority="9">
-      <formula>G23&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="8">
-      <formula>G23&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="7">
-      <formula>G23&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="25" priority="6">
-      <formula>G28&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="5">
-      <formula>G28&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="4">
-      <formula>G28&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="22" priority="3">
-      <formula>B36&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
-      <formula>B36&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="1">
-      <formula>B36&gt;11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6032,23 +6171,23 @@
         <v>190</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J2" s="9"/>
     </row>
@@ -6550,7 +6689,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B35">
         <f>H4+H14+H20</f>
@@ -6559,7 +6698,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B36">
         <f>I4+I14+I20</f>
@@ -6567,80 +6706,80 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="89" priority="1">
+      <formula>B34&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="2">
+      <formula>B34&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="3">
+      <formula>B34&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="86" priority="13">
+      <formula>B36=B35</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="14">
+      <formula>B36&lt;B35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="84" priority="10">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="11">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="12">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="81" priority="7">
+      <formula>G14&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="8">
+      <formula>G14&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="9">
+      <formula>G14&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="78" priority="4">
+      <formula>G20&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="5">
+      <formula>G20&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="6">
+      <formula>G20&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="69" priority="22">
+    <cfRule type="expression" dxfId="75" priority="21">
+      <formula>I4=H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="22">
       <formula>I4&lt;H4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="21">
-      <formula>I4=H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="67" priority="18">
+    <cfRule type="expression" dxfId="73" priority="17">
+      <formula>I14=H14</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="18">
       <formula>I14&lt;H14</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="17">
-      <formula>I14=H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="65" priority="16">
+    <cfRule type="expression" dxfId="71" priority="15">
+      <formula>I20=H20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="16">
       <formula>I20&lt;H20</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="15">
-      <formula>I20=H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="63" priority="13">
-      <formula>B36=B35</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="14">
-      <formula>B36&lt;B35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="61" priority="12">
-      <formula>G4&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="11">
-      <formula>G4&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="10">
-      <formula>G4&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="58" priority="9">
-      <formula>G14&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="8">
-      <formula>G14&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="7">
-      <formula>G14&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="55" priority="6">
-      <formula>G20&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="5">
-      <formula>G20&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="4">
-      <formula>G20&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="52" priority="3">
-      <formula>B34&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="2">
-      <formula>B34&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1">
-      <formula>B34&gt;11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6739,23 +6878,23 @@
         <v>190</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7052,7 +7191,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B21">
         <f>H4+H8+H15</f>
@@ -7061,7 +7200,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B22">
         <f>I4+I8+I15</f>
@@ -7069,80 +7208,80 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="69" priority="1">
+      <formula>B20&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="2">
+      <formula>B20&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="3">
+      <formula>B20&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="66" priority="13">
+      <formula>B22=B21</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="14">
+      <formula>B22&lt;B21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="64" priority="10">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="11">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="12">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="61" priority="7">
+      <formula>G8&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="8">
+      <formula>G8&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="9">
+      <formula>G8&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="58" priority="4">
+      <formula>G15&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="5">
+      <formula>G15&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="6">
+      <formula>G15&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="89" priority="20">
+    <cfRule type="expression" dxfId="55" priority="19">
+      <formula>I4=H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="20">
       <formula>I4&lt;H4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="19">
-      <formula>I4=H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="87" priority="18">
+    <cfRule type="expression" dxfId="53" priority="17">
+      <formula>I8=H8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="18">
       <formula>I8&lt;H8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="17">
-      <formula>I8=H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="85" priority="16">
+    <cfRule type="expression" dxfId="51" priority="15">
+      <formula>I15=H15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="16">
       <formula>I15&lt;H15</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="15">
-      <formula>I15=H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="83" priority="14">
-      <formula>B22&lt;B21</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="13">
-      <formula>B22=B21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="81" priority="12">
-      <formula>G4&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="11">
-      <formula>G4&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="10">
-      <formula>G4&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="78" priority="9">
-      <formula>G8&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="8">
-      <formula>G8&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="7">
-      <formula>G8&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="75" priority="6">
-      <formula>G15&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="5">
-      <formula>G15&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="4">
-      <formula>G15&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="72" priority="3">
-      <formula>B20&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="2">
-      <formula>B20&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1">
-      <formula>B20&gt;11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8018,26 +8157,26 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8589,7 +8728,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B34">
         <f>H4+H11+H16+H21+H26</f>
@@ -8598,7 +8737,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B35">
         <f>I4+I11+I16+I21+I26</f>
@@ -8606,118 +8745,118 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="49" priority="1">
+      <formula>B33&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="2">
+      <formula>B33&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="3">
+      <formula>B33&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="46" priority="20">
+      <formula>B35&lt;B34</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="21">
+      <formula>B35=B34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="44" priority="17">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="18">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="19">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="41" priority="14">
+      <formula>G11&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="15">
+      <formula>G11&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="16">
+      <formula>G11&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="38" priority="10">
+      <formula>G16&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="11">
+      <formula>G16&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="12">
+      <formula>G16&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="35" priority="7">
+      <formula>G21&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="8">
+      <formula>G21&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="9">
+      <formula>G21&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="expression" dxfId="32" priority="4">
+      <formula>G26&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="5">
+      <formula>G26&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="6">
+      <formula>G26&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="119" priority="31">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>I4=H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>I4&lt;H4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="29">
-      <formula>I4=H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="117" priority="30">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>I11&lt;H11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>I11=H11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="28">
-      <formula>I11&lt;H11</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>I16=H16</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>I16&lt;H16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="115" priority="27">
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>I21=H21</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>I21&lt;H21</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="26">
-      <formula>I21=H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="113" priority="25">
-      <formula>I16&lt;H16</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="24">
-      <formula>I16=H16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="111" priority="23">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>I26&lt;H26</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>I26=H26</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="22">
-      <formula>I26&lt;H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="109" priority="21">
-      <formula>B35=B34</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="20">
-      <formula>B35&lt;B34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="107" priority="18">
-      <formula>G4&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="17">
-      <formula>G4&gt;11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="19">
-      <formula>G4&lt;10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="104" priority="14">
-      <formula>G11&gt;11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="15">
-      <formula>G11&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="16">
-      <formula>G11&lt;10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="101" priority="12">
-      <formula>G16&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="11">
-      <formula>G16&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="10">
-      <formula>G16&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="98" priority="9">
-      <formula>G21&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="8">
-      <formula>G21&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="7">
-      <formula>G21&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="93" priority="6">
-      <formula>G26&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="5">
-      <formula>G26&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="4">
-      <formula>G26&gt;11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="95" priority="3">
-      <formula>B33&lt;10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="2">
-      <formula>B33&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="1">
-      <formula>B33&gt;11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8813,26 +8952,26 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9032,7 +9171,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B16">
         <f>H4+H7+H10</f>
@@ -9041,7 +9180,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B17">
         <f>I4+I7+I10</f>
@@ -9050,78 +9189,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="139" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>B15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="10">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>B15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>B15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="136" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>B17=B16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>B17&lt;B16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="134" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="19">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="20">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="131" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>G7&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>G7&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>G7&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="128" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>G10&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>G10&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>G10&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="125" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="123" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>I7=H7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>I7&lt;H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="121" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>I10=H10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>I10&lt;H10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9648,7 +9787,7 @@
   <sheetData>
     <row r="1" spans="7:15" ht="26.4" x14ac:dyDescent="1">
       <c r="G1" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H1" s="7"/>
     </row>
@@ -9657,26 +9796,26 @@
         <v>189</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>222</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="7:15" x14ac:dyDescent="0.55000000000000004">
@@ -9696,12 +9835,12 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -10179,7 +10318,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -10188,26 +10327,26 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>300</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10227,12 +10366,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -10318,7 +10457,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -10327,26 +10466,26 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>222</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10366,12 +10505,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/ISEN_Bulletin_Excel.xlsx
+++ b/ISEN_Bulletin_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Framework_Arthur\Downloads\Project suite\Bulletins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA6B10A-2CF7-4E79-BD8A-D08953ED8D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64500E48-6104-4A41-9B04-4903EAED59EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" tabRatio="851" xr2:uid="{F3516D6A-EC28-40DF-9BC6-39873143E270}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="308">
   <si>
     <t>Titre</t>
   </si>
@@ -968,6 +968,27 @@
   </si>
   <si>
     <t>nombre crédits ECTS encore à valider</t>
+  </si>
+  <si>
+    <t>Mathématiques</t>
+  </si>
+  <si>
+    <t>Physique &amp; Sciences de l'ingénieur</t>
+  </si>
+  <si>
+    <t>Physique</t>
+  </si>
+  <si>
+    <t>Info Algo et développement</t>
+  </si>
+  <si>
+    <t>Culture Numérique</t>
+  </si>
+  <si>
+    <t>Humanité</t>
+  </si>
+  <si>
+    <t>Modules électifs selon cycle</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1124,7 +1145,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,17 +1163,16 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="166">
+  <dxfs count="326">
     <dxf>
       <fill>
         <patternFill>
@@ -2118,6 +2143,1126 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2869,36 +4014,36 @@
             <c:numRef>
               <c:f>'Read me'!$A$11:$J$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00">
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00">
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00">
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -4098,7 +5243,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4243,17 +5388,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
+      <c r="A11" s="11">
+        <f>'Bulletin S1'!B31</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <f>'Bulletin S2'!B31</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
+        <f>'Bulletin S3'!B31</f>
+        <v>10</v>
+      </c>
+      <c r="D11" s="11">
+        <f>'Bulletin S4'!B30</f>
+        <v>10</v>
       </c>
       <c r="E11" s="11">
         <f>'Bulletin S5'!B36</f>
@@ -4281,53 +5430,53 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="17">
+      <c r="A13" s="18">
         <f>AVERAGE(A11,B11)</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18">
         <f>AVERAGE(C11,D11)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18">
         <f>AVERAGE(E11,F11)</f>
         <v>10</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17">
+      <c r="F13" s="19"/>
+      <c r="G13" s="18">
         <f>AVERAGE(G11,H11)</f>
         <v>10</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19">
+      <c r="H13" s="19"/>
+      <c r="I13" s="20">
         <f>AVERAGE(I11,J11)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4354,9 +5503,9 @@
       <c r="A17" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B17" s="16">
-        <f>'Bulletin S5'!B38 + 'Bulletin S6'!B38 + 'Bulletin S7'!B36 + 'Bulletin S8'!B22 + 'Bulletin S9'!B35 + 'Bulletin S10'!B17</f>
-        <v>180</v>
+      <c r="B17" s="26">
+        <f>'Bulletin S1'!B33 + 'Bulletin S2'!B33 + 'Bulletin S3'!B33 + 'Bulletin S4'!B32 + 'Bulletin S5'!B38 + 'Bulletin S6'!B38 + 'Bulletin S7'!B36 + 'Bulletin S8'!B22 + 'Bulletin S9'!B35 + 'Bulletin S10'!B17</f>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4365,46 +5514,46 @@
       </c>
       <c r="B18">
         <f>300-B17</f>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A9:J11">
-    <cfRule type="cellIs" dxfId="165" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="325" priority="21" operator="between">
       <formula>10</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="324" priority="22" operator="between">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:J13">
-    <cfRule type="expression" dxfId="163" priority="7">
+    <cfRule type="expression" dxfId="323" priority="7">
       <formula>AND(A11&gt;=10, B11&gt;=10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="8">
+    <cfRule type="expression" dxfId="322" priority="8">
       <formula>OR(A11&lt;10, B11&lt;10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="161" priority="1">
+    <cfRule type="expression" dxfId="321" priority="1">
       <formula>B15="OUI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="2">
+    <cfRule type="expression" dxfId="320" priority="2">
       <formula>B15="NON"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4439,10 +5588,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796BE60-A328-4A65-9F1F-57212B5C5A82}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4450,6 +5599,7 @@
     <col min="1" max="1" width="33.3671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.89453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1015625" bestFit="1" customWidth="1"/>
@@ -4488,32 +5638,624 @@
         <v>284</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <f>B5+B6+B7</f>
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4">
+        <f>(E5*F5+E6*F6+E7*F7)/(C4)</f>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f>ROUND(E4, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="14">
+        <f>IF(G4&gt;=10,H4,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9">
+        <f>B10+B11+B12+B13</f>
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <f>C10+C13</f>
+        <v>16.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="22">
+        <f>(E10*F10+E11*F11+E12*F12+E13*F13)/(C9)</f>
+        <v>10</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9">
+        <f>ROUND(E9, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14">
+        <f>IF(G9&gt;=10,H9,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>11.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22">
+        <f>C10*2/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22">
+        <f>C10*2/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22">
+        <f>C10/5</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22">
+        <f>C13</f>
+        <v>5</v>
+      </c>
+    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15">
+        <f>B16+B17</f>
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>12.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="22">
+        <f>(E16*F16+E17*F17)/(C15)</f>
+        <v>10</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15">
+        <f>ROUND(E15,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f>IF(G15&gt;=10,H15,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="22" t="str">
+        <f>IF('Read me'!B4="CIR","Algo C++","Python")</f>
+        <v>Python</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="22">
+        <f>C16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>7.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="22">
+        <f>C17</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19">
+        <f>B20+B21</f>
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <f>C20+C21</f>
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="22">
+        <f>(E20*F20+E21*F21)/(C19)</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19">
+        <f>ROUND(E19,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <f>IF(G19&gt;=10,H19,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="22">
+        <f>C20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="22">
+        <f>C21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23">
+        <f>B24+B25+B26</f>
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <f>C24+C26+C25</f>
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23">
+        <f>(E24*F24+E25*F25+E26*F26)/(C23)</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23">
+        <f>ROUND(E23,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <f>IF(G23&gt;=10,H23,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="23" t="str">
+        <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Communication Web",IF('Read me'!B4="BIOST","Microbiologie",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Ecologie appliquée",IF('Read me'!B4="BIAST","Ecologie appliquée",IF('Read me'!B4="MECA","Sciences de l'ingénieur compléments","autre")))))))</f>
+        <v>Math</v>
+      </c>
+      <c r="B24" s="24">
+        <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",30,0)))))))</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="22">
+        <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",5,0)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" s="22">
+        <f>C24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24" t="str">
+        <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Python",IF('Read me'!B4="BIOST","Pharmaco-toxicologie",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Ecotoxicologie",IF('Read me'!B4="BIAST","Agro géné",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
+        <v>Physique</v>
+      </c>
+      <c r="B25" s="22">
+        <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",15,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",60,0)))))))</f>
+        <v>30</v>
+      </c>
+      <c r="C25" s="22">
+        <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",2.5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",10,0)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="22">
+        <f>C25</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24" t="str">
+        <f>IF('Read me'!B4="CGSI","TIPE robotique",IF('Read me'!B4="CIR","Réseaux",IF('Read me'!B4="BIOST","Physio humaine",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Projet environnement",IF('Read me'!B4="BIAST","Génétique",IF('Read me'!B4="MECA"," ","autre")))))))</f>
+        <v>TIPE robotique</v>
+      </c>
+      <c r="B26" s="22">
+        <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",45,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",0,0)))))))</f>
+        <v>30</v>
+      </c>
+      <c r="C26" s="22">
+        <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",7.5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",0,0)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="22" t="str">
+        <f>IF('Read me'!B4="MECA"," ","note")</f>
+        <v>note</v>
+      </c>
+      <c r="E26" s="22">
+        <v>10</v>
+      </c>
+      <c r="F26" s="22">
+        <f>C26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="22">
+        <f>B23+B19+B15+B9+B4</f>
+        <v>420</v>
+      </c>
+      <c r="C28">
+        <f>C15+C9+C4+C19+C23</f>
+        <v>69</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7" t="s">
+      <c r="B29" s="25">
+        <f>(G4*C4+G9*C9+G15*C15+G19*C19+G23*C23)/C28</f>
+        <v>10</v>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7" t="s">
+      <c r="B30" s="3">
+        <f>ROUND(B29,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7" t="s">
+      <c r="B31">
+        <f>H4+H9+H15+H19+H23</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
         <v>279</v>
       </c>
+      <c r="B32">
+        <f>I4+I9+I15+I19+I23</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="169" priority="19">
+      <formula>B30&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="20">
+      <formula>B30&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="21">
+      <formula>B30&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="166" priority="11">
+      <formula>B32=B31</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="12">
+      <formula>B32&lt;B31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="164" priority="28">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="29">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="30">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="161" priority="25">
+      <formula>G9&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="26">
+      <formula>G9&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="27">
+      <formula>G9&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="158" priority="22">
+      <formula>G15&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="23">
+      <formula>G15&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="24">
+      <formula>G15&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="155" priority="17">
+      <formula>I4=H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="18">
+      <formula>I4&lt;H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="153" priority="15">
+      <formula>I9=H9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="16">
+      <formula>I9&lt;H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="151" priority="13">
+      <formula>I15=H15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="14">
+      <formula>I15&lt;H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="149" priority="9">
+      <formula>I19=H19</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="10">
+      <formula>I19&lt;H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="147" priority="7">
+      <formula>I23=H23</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="8">
+      <formula>I23&lt;H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="145" priority="4">
+      <formula>G19&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="5">
+      <formula>G19&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="6">
+      <formula>G19&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="142" priority="1">
+      <formula>G23&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="2">
+      <formula>G23&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="3">
+      <formula>G23&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4606,8 +6348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD1E8FF-BACC-4AC9-A205-46AC401C6E4D}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6140,7 +7882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B01654-16B6-483E-8D72-B459704D0CFF}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -8924,7 +10666,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9273,7 +11015,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9767,17 +11509,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692F7E44-395A-44F6-BDBF-D049B14F0A26}">
-  <dimension ref="G1:O18"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="7" max="7" width="33.3671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.47265625" customWidth="1"/>
+    <col min="2" max="2" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1015625" customWidth="1"/>
+    <col min="8" max="8" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.89453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26171875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.9453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.89453125" bestFit="1" customWidth="1"/>
@@ -9785,65 +11534,680 @@
     <col min="15" max="15" width="18.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:15" ht="26.4" x14ac:dyDescent="1">
-      <c r="G1" s="6" t="s">
+    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
+      <c r="A1" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="7:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="G2" s="8" t="s">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
+      <c r="B2" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="H2" s="9" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="O2" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="7:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G14" s="7" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <f>B5+B6+B7</f>
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4">
+        <f>(E5*F5+E6*F6+E7*F7)/(C4)</f>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f>ROUND(E4, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="14">
+        <f>IF(G4&gt;=10,H4,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9">
+        <f>B10+B11+B12+B13</f>
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <f>C10+C13</f>
+        <v>16.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="22">
+        <f>(E10*F10+E11*F11+E12*F12+E13*F13)/(C9)</f>
+        <v>10</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9">
+        <f>ROUND(E9, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14">
+        <f>IF(G9&gt;=10,H9,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>11.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22">
+        <f>C10*2/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22">
+        <f>C10*2/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22">
+        <f>C10/5</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22">
+        <f>C13</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15">
+        <f>B16+B17</f>
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <f>C16+C17</f>
+        <v>7.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="22">
+        <f>(E16*F16+E17*F17)/(C15)</f>
+        <v>10</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15">
+        <f>ROUND(E15,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f>IF(G15&gt;=10,H15,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="22">
+        <f>C16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>2.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="22">
+        <f>C17</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19">
+        <f>B20+B21</f>
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <f>C20+C21</f>
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="22">
+        <f>(E20*F20+E21*F21)/(C19)</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19">
+        <f>ROUND(E19,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <f>IF(G19&gt;=10,H19,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="22">
+        <f>C20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="22">
+        <f>C21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23">
+        <f>B24+B25+B26+B27</f>
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <f>C24+C26+C25+C27</f>
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23">
+        <f>(E24*F24+E25*F25+E26*F26+E27*F27)/(C23)</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23">
+        <f>ROUND(E23,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <f>IF(G23&gt;=10,H23,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="23" t="str">
+        <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Algo C expert",IF('Read me'!B4="BIOST","Biocellulaire",IF('Read me'!B4="CENT","Introduction to economics",IF('Read me'!B4="EST","Changement climatique et sociétés",IF('Read me'!B4="BIAST","Bio veg (DA)",IF('Read me'!B4="MECA","Mathématiques - compléments","autre")))))))</f>
+        <v>Math</v>
+      </c>
+      <c r="B24" s="23">
+        <f>IF('Read me'!B4="CGSI",60,IF('Read me'!B4="CIR",45,IF('Read me'!B4="BIOST",60,IF('Read me'!B4="CENT",30,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",15,IF('Read me'!B4="MECA",15,0)))))))</f>
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <f>IF('Read me'!B4="CGSI",10,IF('Read me'!B4="CIR",7.5,IF('Read me'!B4="BIOST",10,IF('Read me'!B4="CENT",5,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",2.5,IF('Read me'!B4="MECA",2.5,0)))))))</f>
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" s="22">
+        <f>C24</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24" t="str">
+        <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Web frontend",IF('Read me'!B4="BIOST","Histologie",IF('Read me'!B4="CENT","Leadership",IF('Read me'!B4="EST","Changement climatique : causes physiques",IF('Read me'!B4="BIAST","Physio veg (DA; nov)",IF('Read me'!B4="MECA","Sciences de l'ingénieur - compléments","autre")))))))</f>
+        <v>Physique</v>
+      </c>
+      <c r="B25" s="22">
+        <f>IF('Read me'!B4="CGSI",15,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",15,IF('Read me'!B4="CENT",30,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",15,IF('Read me'!B4="MECA",15,0)))))))</f>
+        <v>15</v>
+      </c>
+      <c r="C25" s="22">
+        <f>IF('Read me'!B4="CGSI",2.5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",2.5,IF('Read me'!B4="CENT",5,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",2.5,IF('Read me'!B4="MECA",2.5,0)))))))</f>
+        <v>2.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="22">
+        <f>C25</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24" t="str">
+        <f>IF('Read me'!B4="CGSI","Sciences de l'ingénieur",IF('Read me'!B4="CIR","Linux",IF('Read me'!B4="BIOST","Biochimie",IF('Read me'!B4="CENT","Introduction to marketing",IF('Read me'!B4="EST","Ecologie générale",IF('Read me'!B4="BIAST","Ecologie générale (FP+EST)",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
+        <v>Sciences de l'ingénieur</v>
+      </c>
+      <c r="B26" s="22">
+        <f>IF('Read me'!B4="CGSI",15,IF('Read me'!B4="CIR",15,IF('Read me'!B4="BIOST",15,IF('Read me'!B4="CENT",30,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",60,0)))))))</f>
+        <v>15</v>
+      </c>
+      <c r="C26" s="22">
+        <f>IF('Read me'!B4="CGSI",2.5,IF('Read me'!B4="CIR",2.5,IF('Read me'!B4="BIOST",2.5,IF('Read me'!B4="CENT",5,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",10,0)))))))</f>
+        <v>2.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" s="22">
+        <f>C26</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="22" t="str">
+        <f>IF('Read me'!B4="BIAST","botanique(FP)"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B27" s="22">
+        <f>IF('Read me'!B4="BIAST",30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="22">
+        <f>IF('Read me'!B4="BIAST",5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="22" t="str">
+        <f>IF('Read me'!B4="BIAST","note"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" s="22">
+        <f>C27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="15" spans="7:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G15" s="7" t="s">
+      <c r="B29" s="22">
+        <f>B23+B19+B15+B9+B4</f>
+        <v>390</v>
+      </c>
+      <c r="C29">
+        <f>C15+C9+C4+C19+C23</f>
+        <v>64</v>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="16" spans="7:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G16" s="7" t="s">
+      <c r="B30" s="25">
+        <f>(G4*C4+G9*C9+G15*C15+G19*C19+G23*C23)/C29</f>
+        <v>10</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G17" s="7" t="s">
+      <c r="B31" s="3">
+        <f>ROUND(B30,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G18" s="7" t="s">
+      <c r="B32">
+        <f>H4+H9+H15+H19+H23</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7" t="s">
         <v>279</v>
       </c>
+      <c r="B33">
+        <f>I4+I9+I15+I19+I23</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="319" priority="19">
+      <formula>B31&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="20">
+      <formula>B31&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="21">
+      <formula>B31&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="316" priority="11">
+      <formula>B33=B32</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="12">
+      <formula>B33&lt;B32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="314" priority="28">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="29">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="30">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="311" priority="25">
+      <formula>G9&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="26">
+      <formula>G9&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="27">
+      <formula>G9&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="308" priority="22">
+      <formula>G15&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="23">
+      <formula>G15&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="24">
+      <formula>G15&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="305" priority="17">
+      <formula>I4=H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="18">
+      <formula>I4&lt;H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="303" priority="15">
+      <formula>I9=H9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="16">
+      <formula>I9&lt;H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="301" priority="13">
+      <formula>I15=H15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="14">
+      <formula>I15&lt;H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="299" priority="9">
+      <formula>I19=H19</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="10">
+      <formula>I19&lt;H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="297" priority="7">
+      <formula>I23=H23</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="296" priority="8">
+      <formula>I23&lt;H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="295" priority="4">
+      <formula>G19&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="5">
+      <formula>G19&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="293" priority="6">
+      <formula>G19&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="292" priority="1">
+      <formula>G23&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="2">
+      <formula>G23&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="3">
+      <formula>G23&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9853,7 +12217,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10298,17 +12662,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6309F6D-42B2-4200-ADA8-2D3AF2A4190D}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.47265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.3125" customWidth="1"/>
+    <col min="4" max="4" width="18.578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.9453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.89453125" bestFit="1" customWidth="1"/>
@@ -10349,32 +12714,647 @@
         <v>284</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <f>B5+B6+B7</f>
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4">
+        <f>(E5*F5+E6*F6+E7*F7)/(C4)</f>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f>ROUND(E4, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="14">
+        <f>IF(G4&gt;=10,H4,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9">
+        <f>B10+B11+B12+B13</f>
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <f>C10+C13</f>
+        <v>16.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="22">
+        <f>(E10*F10+E11*F11+E12*F12+E13*F13)/(C9)</f>
+        <v>10</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9">
+        <f>ROUND(E9, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14">
+        <f>IF(G9&gt;=10,H9,0)</f>
+        <v>8</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>11.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22">
+        <f>C10*2/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22">
+        <f>C10*2/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22">
+        <f>C10/5</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22">
+        <f>C13</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15">
+        <f>B16+B17</f>
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <f>C16+C17</f>
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="22">
+        <f>(E16*F16+E17*F17)/(C15)</f>
+        <v>10</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15">
+        <f>ROUND(E15,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f>IF(G15&gt;=10,H15,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="22">
+        <f>C16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="22">
+        <f>C17</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19">
+        <f>B20+B21</f>
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <f>C20+C21</f>
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="22">
+        <f>(E20*F20+E21*F21)/(C19)</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19">
+        <f>ROUND(E19,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <f>IF(G19&gt;=10,H19,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="22">
+        <f>C20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="22">
+        <f>C21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23">
+        <f>B24+B25+B26+B27</f>
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <f>C24+C26+C25+C27</f>
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23">
+        <f>(E24*F24+E25*F25+E26*F26+E27*F27)/(C23)</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23">
+        <f>ROUND(E23,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <f>IF(G23&gt;=10,H23,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="23" t="str">
+        <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Algo C expert",IF('Read me'!B4="BIOST","Physio humaine",IF('Read me'!B4="CENT","Les fondamentaux de la relation client 4.0",IF('Read me'!B4="EST","Environnement et sociéré",IF('Read me'!B4="BIAST","Biocell",IF('Read me'!B4="MECA","Mathématiques - compléments","autre")))))))</f>
+        <v>Math</v>
+      </c>
+      <c r="B24" s="23">
+        <f>IF('Read me'!B4="CGSI",60,IF('Read me'!B4="CIR",45,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",15,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",15,0)))))))</f>
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <f>IF('Read me'!B4="CGSI",10,IF('Read me'!B4="CIR",7.5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",2.5,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",2.5,0)))))))</f>
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" s="22">
+        <f>C24</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24" t="str">
+        <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Web frontend",IF('Read me'!B4="BIOST","Anatomie",IF('Read me'!B4="CENT","Histoire de l'économie et évolution des modèles économiques",IF('Read me'!B4="EST","Chimie",IF('Read me'!B4="BIAST","Biochimie",IF('Read me'!B4="MECA","Sciences de l'ingénieur - compléments","autre")))))))</f>
+        <v>Physique</v>
+      </c>
+      <c r="B25" s="22">
+        <f>IF('Read me'!B4="CGSI",15,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",15,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",15,IF('Read me'!B4="MECA",15,0)))))))</f>
+        <v>15</v>
+      </c>
+      <c r="C25" s="22">
+        <f>IF('Read me'!B4="CGSI",2.5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",2.5,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",2.5,IF('Read me'!B4="MECA",2.5,0)))))))</f>
+        <v>2.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="22">
+        <f>C25</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24" t="str">
+        <f>IF('Read me'!B4="CGSI","Sciences de l'ingénieur",IF('Read me'!B4="CIR","Réseaux",IF('Read me'!B4="BIOST","Chimie",IF('Read me'!B4="CENT","Theory of orga",IF('Read me'!B4="EST","Technologie pour l'environnement",IF('Read me'!B4="BIAST","Chimie",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
+        <v>Sciences de l'ingénieur</v>
+      </c>
+      <c r="B26" s="22">
+        <f>IF('Read me'!B4="CGSI",15,IF('Read me'!B4="CIR",15,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",30,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",60,0)))))))</f>
+        <v>15</v>
+      </c>
+      <c r="C26" s="22">
+        <f>IF('Read me'!B4="CGSI",2.5,IF('Read me'!B4="CIR",2.5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",5,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",10,0)))))))</f>
+        <v>2.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" s="22">
+        <f>C26</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="22" t="str">
+        <f>IF('Read me'!B4="CENT","Introduction to entrepreneurship",IF('Read me'!B4="BIAST","Physio veg"," "))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B27" s="22">
+        <f>IF('Read me'!B4="CENT",30,IF('Read me'!B4="BIAST",15,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="22">
+        <f>IF('Read me'!B4="CENT",5,IF('Read me'!B4="BIAST",2.5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="22" t="str">
+        <f>IF('Read me'!B4="CENT","note",IF('Read me'!B4="BIAST","note"," "))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" s="22">
+        <f>C27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7" t="s">
+      <c r="B29" s="22">
+        <f>B23+B19+B15+B9+B4</f>
+        <v>405</v>
+      </c>
+      <c r="C29">
+        <f>C15+C9+C4+C19+C23</f>
+        <v>66.5</v>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7" t="s">
+      <c r="B30" s="25">
+        <f>(G4*C4+G9*C9+G15*C15+G19*C19+G23*C23)/C29</f>
+        <v>10</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7" t="s">
+      <c r="B31" s="3">
+        <f>ROUND(B30,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7" t="s">
+      <c r="B32">
+        <f>H4+H9+H15+H19+H23</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7" t="s">
         <v>279</v>
       </c>
+      <c r="B33">
+        <f>I4+I9+I15+I19+I23</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="259" priority="19">
+      <formula>B31&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="20">
+      <formula>B31&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="21">
+      <formula>B31&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="256" priority="11">
+      <formula>B33=B32</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="12">
+      <formula>B33&lt;B32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="254" priority="28">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="29">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="30">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="251" priority="25">
+      <formula>G9&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="26">
+      <formula>G9&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="27">
+      <formula>G9&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="248" priority="22">
+      <formula>G15&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="23">
+      <formula>G15&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="24">
+      <formula>G15&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="245" priority="17">
+      <formula>I4=H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="18">
+      <formula>I4&lt;H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="243" priority="15">
+      <formula>I9=H9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="16">
+      <formula>I9&lt;H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="241" priority="13">
+      <formula>I15=H15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="14">
+      <formula>I15&lt;H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="239" priority="9">
+      <formula>I19=H19</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="10">
+      <formula>I19&lt;H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="237" priority="7">
+      <formula>I23=H23</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="8">
+      <formula>I23&lt;H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="235" priority="4">
+      <formula>G19&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="5">
+      <formula>G19&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="6">
+      <formula>G19&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="232" priority="1">
+      <formula>G23&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="2">
+      <formula>G23&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="3">
+      <formula>G23&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10437,10 +13417,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7320E1C8-E225-4D19-B667-0CAC3DACB6B5}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J34" sqref="A4:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10448,6 +13428,7 @@
     <col min="1" max="1" width="33.3671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.9453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.89453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.89453125" bestFit="1" customWidth="1"/>
@@ -10488,32 +13469,649 @@
         <v>284</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <f>B5+B6+B7</f>
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4">
+        <f>(E5*F5+E6*F6+E7*F7)/(C4)</f>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f>ROUND(E4, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="14">
+        <f>IF(G4&gt;=10,H4,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="22">
+        <f>C4/3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9">
+        <f>B10+B11+B12+B13</f>
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <f>C10+C13</f>
+        <v>16.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="22">
+        <f>(E10*F10+E11*F11+E12*F12+E13*F13)/(C9)</f>
+        <v>10</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9">
+        <f>ROUND(E9, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14">
+        <f>IF(G9&gt;=10,H9,0)</f>
+        <v>8</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>11.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22">
+        <f>C10*2/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22">
+        <f>C10*2/5</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22">
+        <f>C10/5</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22">
+        <f>C13</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15">
+        <f>B16+B17</f>
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>7.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="22">
+        <f>(E16*F16+E17*F17)/(C15)</f>
+        <v>10</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15">
+        <f>ROUND(E15,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f>IF(G15&gt;=10,H15,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="22" t="str">
+        <f>IF('Read me'!B4="CIR","Algo C++","Python")</f>
+        <v>Python</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="22">
+        <f>C16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>2.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="22">
+        <f>C17</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19">
+        <f>B20+B21</f>
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <f>C20+C21</f>
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="22">
+        <f>(E20*F20+E21*F21)/(C19)</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19">
+        <f>ROUND(E19,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <f>IF(G19&gt;=10,H19,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="22">
+        <f>C20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="22">
+        <f>C21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23">
+        <f>B24+B25+B26+B27</f>
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <f>C24+C26+C25+C27</f>
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23">
+        <f>(E24*F24+E25*F25+E26*F26+E27*F27)/(C23)</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23">
+        <f>ROUND(E23,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <f>IF(G23&gt;=10,H23,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="23" t="str">
+        <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Algo avancé",IF('Read me'!B4="BIOST","Biochimie métabolique",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Numérique et développement durable",IF('Read me'!B4="BIAST","Géologie",IF('Read me'!B4="MECA","Sciences de l'ingénieur compléments","autre")))))))</f>
+        <v>Math</v>
+      </c>
+      <c r="B24" s="23">
+        <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",15,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",15,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",30,0)))))))</f>
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",2.5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",2.5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",5,0)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" s="22">
+        <f>C24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24" t="str">
+        <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Serveur Web",IF('Read me'!B4="BIOST","Génétique humaine",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Ressources naturelles",IF('Read me'!B4="BIAST","Pédo",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
+        <v>Physique</v>
+      </c>
+      <c r="B25" s="22">
+        <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",15,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",60,0)))))))</f>
+        <v>30</v>
+      </c>
+      <c r="C25" s="22">
+        <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",2.5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",10,0)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="22">
+        <f>C25</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24" t="str">
+        <f>IF('Read me'!B4="CGSI","Sciences de l'ingénieur",IF('Read me'!B4="CIR","Web backend",IF('Read me'!B4="BIOST","Physio humaine",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","SIG",IF('Read me'!B4="BIAST","Agro technique",IF('Read me'!B4="MECA"," ","autre")))))))</f>
+        <v>Sciences de l'ingénieur</v>
+      </c>
+      <c r="B26" s="22">
+        <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",0,0)))))))</f>
+        <v>30</v>
+      </c>
+      <c r="C26" s="22">
+        <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",0,0)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="22" t="str">
+        <f>IF('Read me'!B4="MECA"," ","note")</f>
+        <v>note</v>
+      </c>
+      <c r="E26" s="22">
+        <v>10</v>
+      </c>
+      <c r="F26" s="22">
+        <f>C26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="22" t="str">
+        <f>IF('Read me'!B4="CIR","BDD",IF('Read me'!B4="EST","Biocellulaire"," "))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B27" s="22">
+        <f>IF('Read me'!B4="CIR",30,IF('Read me'!B4="EST",15,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="22">
+        <f>IF('Read me'!B4="CIR",5,IF('Read me'!B4="EST",2.5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="22" t="str">
+        <f>IF('Read me'!B4="CIR","note",IF('Read me'!B4="EST","note"," "))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E27" s="22">
+        <v>10</v>
+      </c>
+      <c r="F27" s="22">
+        <f>C27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7" t="s">
+      <c r="B29" s="22">
+        <f>B23+B19+B15+B9+B4</f>
+        <v>390</v>
+      </c>
+      <c r="C29">
+        <f>C15+C9+C4+C19+C23</f>
+        <v>64</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7" t="s">
+      <c r="B30" s="25">
+        <f>(G4*C4+G9*C9+G15*C15+G19*C19+G23*C23)/C29</f>
+        <v>10</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7" t="s">
+      <c r="B31" s="3">
+        <f>ROUND(B30,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7" t="s">
+      <c r="B32">
+        <f>H4+H9+H15+H19+H23</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7" t="s">
         <v>279</v>
       </c>
+      <c r="B33">
+        <f>I4+I9+I15+I19+I23</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="229" priority="19">
+      <formula>B31&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="20">
+      <formula>B31&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="21">
+      <formula>B31&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="226" priority="11">
+      <formula>B33=B32</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="12">
+      <formula>B33&lt;B32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="224" priority="28">
+      <formula>G4&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="29">
+      <formula>G4&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="30">
+      <formula>G4&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="221" priority="25">
+      <formula>G9&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="26">
+      <formula>G9&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="27">
+      <formula>G9&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="218" priority="22">
+      <formula>G15&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="23">
+      <formula>G15&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="24">
+      <formula>G15&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="215" priority="17">
+      <formula>I4=H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="18">
+      <formula>I4&lt;H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="213" priority="15">
+      <formula>I9=H9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="16">
+      <formula>I9&lt;H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="211" priority="13">
+      <formula>I15=H15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="14">
+      <formula>I15&lt;H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="209" priority="9">
+      <formula>I19=H19</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="10">
+      <formula>I19&lt;H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="207" priority="7">
+      <formula>I23=H23</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="8">
+      <formula>I23&lt;H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="205" priority="4">
+      <formula>G19&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="5">
+      <formula>G19&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="6">
+      <formula>G19&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="202" priority="1">
+      <formula>G23&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="2">
+      <formula>G23&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="3">
+      <formula>G23&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ISEN_Bulletin_Excel.xlsx
+++ b/ISEN_Bulletin_Excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Framework_Arthur\Downloads\Project suite\Bulletins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64500E48-6104-4A41-9B04-4903EAED59EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C502F735-EC0C-4AF0-8CF6-D10ABBCBDDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" tabRatio="851" xr2:uid="{F3516D6A-EC28-40DF-9BC6-39873143E270}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="851" xr2:uid="{F3516D6A-EC28-40DF-9BC6-39873143E270}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="21" r:id="rId1"/>
-    <sheet name="Menus déroulants" sheetId="22" state="hidden" r:id="rId2"/>
+    <sheet name="Menus déroulants" sheetId="22" r:id="rId2"/>
     <sheet name="Notes S1" sheetId="1" r:id="rId3"/>
     <sheet name="Bulletin S1" sheetId="2" r:id="rId4"/>
     <sheet name="Notes S2" sheetId="3" r:id="rId5"/>
@@ -36,6 +36,9 @@
     <sheet name="Notes S10" sheetId="20" r:id="rId21"/>
     <sheet name="Bulletin S10" sheetId="19" r:id="rId22"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Read me'!$A$1:$B$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="318">
   <si>
     <t>Titre</t>
   </si>
@@ -929,9 +932,6 @@
     <t xml:space="preserve">SEMESTRE 1 </t>
   </si>
   <si>
-    <t>Autorisation départ à l'étranger A4</t>
-  </si>
-  <si>
     <t>Autorisation départ à l'étranger A5</t>
   </si>
   <si>
@@ -989,6 +989,42 @@
   </si>
   <si>
     <t>Modules électifs selon cycle</t>
+  </si>
+  <si>
+    <t>Autorisation départ à l'étranger A4 
+(sauf UQAC)</t>
+  </si>
+  <si>
+    <t>Autorisation départ à l'étranger A4 
+(seulement UQAC)</t>
+  </si>
+  <si>
+    <t>condition remplies pour diplôme?</t>
+  </si>
+  <si>
+    <t>nombre de semaines passées à l'étranger 
+(validable par bloc de 4 minimum et au moins 17 au total)</t>
+  </si>
+  <si>
+    <t>stage associatif validé?</t>
+  </si>
+  <si>
+    <t>stage ouvrier validé?</t>
+  </si>
+  <si>
+    <t>heures de club PR validées</t>
+  </si>
+  <si>
+    <t>stage technique validé?</t>
+  </si>
+  <si>
+    <t>stage de fin d'études validé?</t>
+  </si>
+  <si>
+    <t>score TOIEC</t>
+  </si>
+  <si>
+    <t>autre diploome anglais niveau B2 ou +</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1145,34 +1181,39 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="326">
+  <dxfs count="296">
     <dxf>
       <fill>
         <patternFill>
@@ -1225,6 +1266,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2163,6 +2232,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2205,6 +2344,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2219,6 +2365,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2233,6 +2386,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2261,6 +2421,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2275,6 +2442,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2338,6 +2575,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2373,6 +2617,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2394,6 +2652,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2415,6 +2743,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2429,6 +2764,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2443,6 +2785,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2457,6 +2806,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2506,6 +2862,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2548,6 +2974,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2604,6 +3037,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2695,13 +3142,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2716,13 +3156,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2737,13 +3170,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2772,13 +3198,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2793,13 +3212,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2814,13 +3226,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2829,580 +3234,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4886,16 +4717,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15488</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13656</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>773440</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>140303</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>549388</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>132205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5240,15 +5071,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0545D5-B693-46C9-99FB-DE6A8E65116F}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.47265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.9453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5292,34 +5123,34 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5388,173 +5219,321 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11">
+      <c r="A11" s="24">
         <f>'Bulletin S1'!B31</f>
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="24">
         <f>'Bulletin S2'!B31</f>
         <v>10</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="24">
         <f>'Bulletin S3'!B31</f>
         <v>10</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="24">
         <f>'Bulletin S4'!B30</f>
         <v>10</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="24">
         <f>'Bulletin S5'!B36</f>
         <v>10</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="24">
         <f>'Bulletin S6'!B36</f>
         <v>10</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="24">
         <f>'Bulletin S7'!B34</f>
         <v>10</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="24">
         <f>'Bulletin S8'!B20</f>
         <v>10</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="24">
         <f>'Bulletin S9'!B33</f>
         <v>10</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="24">
         <f>'Bulletin S10'!B15</f>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="17"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <f>AVERAGE(A11,B11)</f>
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="18">
+      <c r="B13" s="17"/>
+      <c r="C13" s="16">
         <f>AVERAGE(C11,D11)</f>
         <v>10</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18">
+      <c r="D13" s="17"/>
+      <c r="E13" s="16">
         <f>AVERAGE(E11,F11)</f>
         <v>10</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18">
+      <c r="F13" s="17"/>
+      <c r="G13" s="16">
         <f>AVERAGE(G11,H11)</f>
         <v>10</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20">
+      <c r="H13" s="17"/>
+      <c r="I13" s="16">
         <f>AVERAGE(I11,J11)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="15" t="str">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="23" t="str">
+        <f>IF(D11+E11+F11&gt;=13*3,"OUI","NON")</f>
+        <v>NON</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="23" t="str">
         <f>IF(E11+F11&gt;=26,"OUI","NON")</f>
         <v>NON</v>
       </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B16" s="15" t="str">
-        <f>IF(E11+F11+G11+H11&gt;=52,"OUI","NON")</f>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="21" t="str">
+        <f>IF(E11+F11+G11+H11&gt;=13*4,"OUI","NON")</f>
         <v>NON</v>
       </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B17" s="26">
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="21">
         <f>'Bulletin S1'!B33 + 'Bulletin S2'!B33 + 'Bulletin S3'!B33 + 'Bulletin S4'!B32 + 'Bulletin S5'!B38 + 'Bulletin S6'!B38 + 'Bulletin S7'!B36 + 'Bulletin S8'!B22 + 'Bulletin S9'!B35 + 'Bulletin S10'!B17</f>
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B18">
-        <f>300-B17</f>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="21">
+        <f>300-B19</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="22"/>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" s="21" t="str">
+        <f>IF(AND(B19=300, B21&gt;=17, B22="OUI", B23="OUI", B24="OUI", B25="OUI", B26="OUI", OR(B27&gt;=785,B28="OUI")),"OUI","NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="C30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A9:J11">
-    <cfRule type="cellIs" dxfId="325" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="295" priority="51" operator="between">
       <formula>10</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="294" priority="52" operator="between">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:J13">
-    <cfRule type="expression" dxfId="323" priority="7">
+    <cfRule type="expression" dxfId="293" priority="37">
       <formula>AND(A11&gt;=10, B11&gt;=10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="8">
+    <cfRule type="expression" dxfId="292" priority="38">
       <formula>OR(A11&lt;10, B11&lt;10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="321" priority="1">
+  <conditionalFormatting sqref="B15:B18">
+    <cfRule type="expression" dxfId="291" priority="31">
       <formula>B15="OUI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="2">
+    <cfRule type="expression" dxfId="290" priority="32">
       <formula>B15="NON"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="289" priority="29">
+      <formula>B19=300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="30">
+      <formula>B19&lt;300</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="287" priority="27">
+      <formula>B20=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="28">
+      <formula>B20&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="expression" dxfId="285" priority="25">
+      <formula>B21&gt;=17</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="26">
+      <formula>B21&lt;17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="283" priority="21">
+      <formula>B28="OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="22">
+      <formula>B28="NON"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="281" priority="23">
+      <formula>B27&gt;=785</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="24">
+      <formula>B27&lt;785</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>B30="OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>B30="NON"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B26">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>B22="OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>B22="NON"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5578,7 +5557,7 @@
           <x14:formula1>
             <xm:f>'Menus déroulants'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B5 B28 B22:B26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5616,17 +5595,17 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>222</v>
@@ -5640,7 +5619,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <f>B5+B6+B7</f>
@@ -5678,7 +5657,7 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5">
         <f>C4/3</f>
         <v>5</v>
       </c>
@@ -5693,7 +5672,7 @@
       <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6">
         <f>C4/3</f>
         <v>5</v>
       </c>
@@ -5708,17 +5687,14 @@
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7">
         <f>C4/3</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9">
         <f>B10+B11+B12+B13</f>
@@ -5731,11 +5707,10 @@
       <c r="D9" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9">
         <f>(E10*F10+E11*F11+E12*F12+E13*F13)/(C9)</f>
         <v>10</v>
       </c>
-      <c r="F9" s="22"/>
       <c r="G9">
         <f>ROUND(E9, 2)</f>
         <v>10</v>
@@ -5750,7 +5725,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -5764,7 +5739,7 @@
       <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10">
         <f>C10*2/5</f>
         <v>4.5999999999999996</v>
       </c>
@@ -5779,7 +5754,7 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11">
         <f>C10*2/5</f>
         <v>4.5999999999999996</v>
       </c>
@@ -5794,7 +5769,7 @@
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12">
         <f>C10/5</f>
         <v>2.2999999999999998</v>
       </c>
@@ -5815,17 +5790,14 @@
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13">
         <f>C13</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B15">
         <f>B16+B17</f>
@@ -5837,11 +5809,10 @@
       <c r="D15" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15">
         <f>(E16*F16+E17*F17)/(C15)</f>
         <v>10</v>
       </c>
-      <c r="F15" s="22"/>
       <c r="G15">
         <f>ROUND(E15,2)</f>
         <v>10</v>
@@ -5855,7 +5826,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="22" t="str">
+      <c r="A16" t="str">
         <f>IF('Read me'!B4="CIR","Algo C++","Python")</f>
         <v>Python</v>
       </c>
@@ -5871,7 +5842,7 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16">
         <f>C16</f>
         <v>5</v>
       </c>
@@ -5892,17 +5863,14 @@
       <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17">
         <f>C17</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F18" s="22"/>
-    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B19">
         <f>B20+B21</f>
@@ -5915,11 +5883,10 @@
       <c r="D19" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19">
         <f>(E20*F20+E21*F21)/(C19)</f>
         <v>10</v>
       </c>
-      <c r="F19" s="22"/>
       <c r="G19">
         <f>ROUND(E19,2)</f>
         <v>10</v>
@@ -5948,7 +5915,7 @@
       <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20">
         <f>C20</f>
         <v>5</v>
       </c>
@@ -5969,17 +5936,14 @@
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21">
         <f>C21</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23">
         <f>B24+B25+B26</f>
@@ -5996,7 +5960,6 @@
         <f>(E24*F24+E25*F25+E26*F26)/(C23)</f>
         <v>10</v>
       </c>
-      <c r="F23" s="22"/>
       <c r="G23">
         <f>ROUND(E23,2)</f>
         <v>10</v>
@@ -6010,15 +5973,15 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="23" t="str">
+      <c r="A24" t="str">
         <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Communication Web",IF('Read me'!B4="BIOST","Microbiologie",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Ecologie appliquée",IF('Read me'!B4="BIAST","Ecologie appliquée",IF('Read me'!B4="MECA","Sciences de l'ingénieur compléments","autre")))))))</f>
         <v>Math</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24">
         <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",30,0)))))))</f>
         <v>30</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24">
         <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",5,0)))))))</f>
         <v>5</v>
       </c>
@@ -6028,21 +5991,21 @@
       <c r="E24">
         <v>10</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24">
         <f>C24</f>
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="24" t="str">
+      <c r="A25" t="str">
         <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Python",IF('Read me'!B4="BIOST","Pharmaco-toxicologie",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Ecotoxicologie",IF('Read me'!B4="BIAST","Agro géné",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
         <v>Physique</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25">
         <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",15,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",60,0)))))))</f>
         <v>30</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25">
         <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",2.5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",10,0)))))))</f>
         <v>5</v>
       </c>
@@ -6052,44 +6015,41 @@
       <c r="E25">
         <v>10</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25">
         <f>C25</f>
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="24" t="str">
+      <c r="A26" t="str">
         <f>IF('Read me'!B4="CGSI","TIPE robotique",IF('Read me'!B4="CIR","Réseaux",IF('Read me'!B4="BIOST","Physio humaine",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Projet environnement",IF('Read me'!B4="BIAST","Génétique",IF('Read me'!B4="MECA"," ","autre")))))))</f>
         <v>TIPE robotique</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26">
         <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",45,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",0,0)))))))</f>
         <v>30</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26">
         <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",7.5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",0,0)))))))</f>
         <v>5</v>
       </c>
-      <c r="D26" s="22" t="str">
+      <c r="D26" t="str">
         <f>IF('Read me'!B4="MECA"," ","note")</f>
         <v>note</v>
       </c>
-      <c r="E26" s="22">
-        <v>10</v>
-      </c>
-      <c r="F26" s="22">
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <f>C26</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28">
         <f>B23+B19+B15+B9+B4</f>
         <v>420</v>
       </c>
@@ -6097,18 +6057,15 @@
         <f>C15+C9+C4+C19+C23</f>
         <v>69</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="13">
         <f>(G4*C4+G9*C9+G15*C15+G19*C19+G23*C23)/C28</f>
         <v>10</v>
       </c>
-      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
@@ -6118,7 +6075,6 @@
         <f>ROUND(B29,2)</f>
         <v>10</v>
       </c>
-      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
@@ -6143,117 +6099,117 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="169" priority="19">
+    <cfRule type="expression" dxfId="173" priority="19">
       <formula>B30&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="20">
+    <cfRule type="expression" dxfId="172" priority="20">
       <formula>B30&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="21">
+    <cfRule type="expression" dxfId="171" priority="21">
       <formula>B30&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="166" priority="11">
+    <cfRule type="expression" dxfId="170" priority="11">
       <formula>B32=B31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="12">
+    <cfRule type="expression" dxfId="169" priority="12">
       <formula>B32&lt;B31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="164" priority="28">
+    <cfRule type="expression" dxfId="168" priority="28">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="29">
+    <cfRule type="expression" dxfId="167" priority="29">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="30">
+    <cfRule type="expression" dxfId="166" priority="30">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="161" priority="25">
+    <cfRule type="expression" dxfId="165" priority="25">
       <formula>G9&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="26">
+    <cfRule type="expression" dxfId="164" priority="26">
       <formula>G9&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="27">
+    <cfRule type="expression" dxfId="163" priority="27">
       <formula>G9&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="158" priority="22">
+    <cfRule type="expression" dxfId="162" priority="22">
       <formula>G15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="23">
+    <cfRule type="expression" dxfId="161" priority="23">
       <formula>G15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="24">
+    <cfRule type="expression" dxfId="160" priority="24">
       <formula>G15&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="159" priority="4">
+      <formula>G19&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="5">
+      <formula>G19&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="6">
+      <formula>G19&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="156" priority="1">
+      <formula>G23&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="2">
+      <formula>G23&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="3">
+      <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="155" priority="17">
+    <cfRule type="expression" dxfId="153" priority="17">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="18">
+    <cfRule type="expression" dxfId="152" priority="18">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="153" priority="15">
+    <cfRule type="expression" dxfId="151" priority="15">
       <formula>I9=H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="16">
+    <cfRule type="expression" dxfId="150" priority="16">
       <formula>I9&lt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="151" priority="13">
+    <cfRule type="expression" dxfId="149" priority="13">
       <formula>I15=H15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="14">
+    <cfRule type="expression" dxfId="148" priority="14">
       <formula>I15&lt;H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="149" priority="9">
+    <cfRule type="expression" dxfId="147" priority="9">
       <formula>I19=H19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="10">
+    <cfRule type="expression" dxfId="146" priority="10">
       <formula>I19&lt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="147" priority="7">
+    <cfRule type="expression" dxfId="145" priority="7">
       <formula>I23=H23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="8">
+    <cfRule type="expression" dxfId="144" priority="8">
       <formula>I23&lt;H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="145" priority="4">
-      <formula>G19&gt;11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="5">
-      <formula>G19&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="6">
-      <formula>G19&lt;10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="142" priority="1">
-      <formula>G23&gt;11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="2">
-      <formula>G23&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="3">
-      <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6310,7 +6266,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6324,7 +6280,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6376,20 +6332,20 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>280</v>
@@ -6932,78 +6888,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="139" priority="1">
+    <cfRule type="expression" dxfId="143" priority="1">
       <formula>B36&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="2">
+    <cfRule type="expression" dxfId="142" priority="2">
       <formula>B36&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="3">
+    <cfRule type="expression" dxfId="141" priority="3">
       <formula>B36&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="136" priority="13">
+    <cfRule type="expression" dxfId="140" priority="13">
       <formula>B38=B37</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="14">
+    <cfRule type="expression" dxfId="139" priority="14">
       <formula>B38&lt;B37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="134" priority="10">
+    <cfRule type="expression" dxfId="138" priority="10">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="11">
+    <cfRule type="expression" dxfId="137" priority="11">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="12">
+    <cfRule type="expression" dxfId="136" priority="12">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="131" priority="7">
+    <cfRule type="expression" dxfId="135" priority="7">
       <formula>G12&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="8">
+    <cfRule type="expression" dxfId="134" priority="8">
       <formula>G12&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="9">
+    <cfRule type="expression" dxfId="133" priority="9">
       <formula>G12&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="128" priority="4">
+    <cfRule type="expression" dxfId="132" priority="4">
       <formula>G24&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="5">
+    <cfRule type="expression" dxfId="131" priority="5">
       <formula>G24&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="6">
+    <cfRule type="expression" dxfId="130" priority="6">
       <formula>G24&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="125" priority="19">
+    <cfRule type="expression" dxfId="129" priority="19">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="20">
+    <cfRule type="expression" dxfId="128" priority="20">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="123" priority="17">
+    <cfRule type="expression" dxfId="127" priority="17">
       <formula>I12=H12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="18">
+    <cfRule type="expression" dxfId="126" priority="18">
       <formula>I12&lt;H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="121" priority="15">
+    <cfRule type="expression" dxfId="125" priority="15">
       <formula>I24=H24</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="16">
+    <cfRule type="expression" dxfId="124" priority="16">
       <formula>I24&lt;H24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7100,20 +7056,20 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>280</v>
@@ -7704,116 +7660,116 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="123" priority="1">
       <formula>B36&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="2">
+    <cfRule type="expression" dxfId="122" priority="2">
       <formula>B36&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="3">
+    <cfRule type="expression" dxfId="121" priority="3">
       <formula>B36&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="116" priority="19">
+    <cfRule type="expression" dxfId="120" priority="19">
       <formula>B38=B37</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="20">
+    <cfRule type="expression" dxfId="119" priority="20">
       <formula>B38&lt;B37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="114" priority="16">
+    <cfRule type="expression" dxfId="118" priority="16">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="17">
+    <cfRule type="expression" dxfId="117" priority="17">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="18">
+    <cfRule type="expression" dxfId="116" priority="18">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="111" priority="13">
+    <cfRule type="expression" dxfId="115" priority="13">
       <formula>G9&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="14">
+    <cfRule type="expression" dxfId="114" priority="14">
       <formula>G9&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="15">
+    <cfRule type="expression" dxfId="113" priority="15">
       <formula>G9&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="108" priority="10">
+    <cfRule type="expression" dxfId="112" priority="10">
       <formula>G14&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="11">
+    <cfRule type="expression" dxfId="111" priority="11">
       <formula>G14&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="12">
+    <cfRule type="expression" dxfId="110" priority="12">
       <formula>G14&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="105" priority="7">
+    <cfRule type="expression" dxfId="109" priority="7">
       <formula>G23&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="8">
+    <cfRule type="expression" dxfId="108" priority="8">
       <formula>G23&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="9">
+    <cfRule type="expression" dxfId="107" priority="9">
       <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="102" priority="4">
+    <cfRule type="expression" dxfId="106" priority="4">
       <formula>G28&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="5">
+    <cfRule type="expression" dxfId="105" priority="5">
       <formula>G28&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="6">
+    <cfRule type="expression" dxfId="104" priority="6">
       <formula>G28&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="99" priority="29">
+    <cfRule type="expression" dxfId="103" priority="29">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="30">
+    <cfRule type="expression" dxfId="102" priority="30">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="97" priority="27">
+    <cfRule type="expression" dxfId="101" priority="27">
       <formula>I9=H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="28">
+    <cfRule type="expression" dxfId="100" priority="28">
       <formula>I9&lt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="95" priority="21">
+    <cfRule type="expression" dxfId="99" priority="21">
       <formula>I14=H14</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="22">
+    <cfRule type="expression" dxfId="98" priority="22">
       <formula>I14&lt;H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="93" priority="25">
+    <cfRule type="expression" dxfId="97" priority="25">
       <formula>I23=H23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="26">
+    <cfRule type="expression" dxfId="96" priority="26">
       <formula>I23&lt;H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="91" priority="23">
+    <cfRule type="expression" dxfId="95" priority="23">
       <formula>I28=H28</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="24">
+    <cfRule type="expression" dxfId="94" priority="24">
       <formula>I28&lt;H28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7913,17 +7869,17 @@
         <v>190</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>280</v>
@@ -8449,78 +8405,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="89" priority="1">
+    <cfRule type="expression" dxfId="93" priority="1">
       <formula>B34&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="2">
+    <cfRule type="expression" dxfId="92" priority="2">
       <formula>B34&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="3">
+    <cfRule type="expression" dxfId="91" priority="3">
       <formula>B34&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="86" priority="13">
+    <cfRule type="expression" dxfId="90" priority="13">
       <formula>B36=B35</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="14">
+    <cfRule type="expression" dxfId="89" priority="14">
       <formula>B36&lt;B35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="84" priority="10">
+    <cfRule type="expression" dxfId="88" priority="10">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="11">
+    <cfRule type="expression" dxfId="87" priority="11">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="12">
+    <cfRule type="expression" dxfId="86" priority="12">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="81" priority="7">
+    <cfRule type="expression" dxfId="85" priority="7">
       <formula>G14&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="8">
+    <cfRule type="expression" dxfId="84" priority="8">
       <formula>G14&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="9">
+    <cfRule type="expression" dxfId="83" priority="9">
       <formula>G14&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="78" priority="4">
+    <cfRule type="expression" dxfId="82" priority="4">
       <formula>G20&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="5">
+    <cfRule type="expression" dxfId="81" priority="5">
       <formula>G20&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="6">
+    <cfRule type="expression" dxfId="80" priority="6">
       <formula>G20&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="75" priority="21">
+    <cfRule type="expression" dxfId="79" priority="21">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="22">
+    <cfRule type="expression" dxfId="78" priority="22">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="73" priority="17">
+    <cfRule type="expression" dxfId="77" priority="17">
       <formula>I14=H14</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="18">
+    <cfRule type="expression" dxfId="76" priority="18">
       <formula>I14&lt;H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="71" priority="15">
+    <cfRule type="expression" dxfId="75" priority="15">
       <formula>I20=H20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="16">
+    <cfRule type="expression" dxfId="74" priority="16">
       <formula>I20&lt;H20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8620,17 +8576,17 @@
         <v>190</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>280</v>
@@ -8951,78 +8907,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>B20&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="2">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>B20&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="3">
+    <cfRule type="expression" dxfId="71" priority="3">
       <formula>B20&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="66" priority="13">
+    <cfRule type="expression" dxfId="70" priority="13">
       <formula>B22=B21</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="14">
+    <cfRule type="expression" dxfId="69" priority="14">
       <formula>B22&lt;B21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="64" priority="10">
+    <cfRule type="expression" dxfId="68" priority="10">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="11">
+    <cfRule type="expression" dxfId="67" priority="11">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="12">
+    <cfRule type="expression" dxfId="66" priority="12">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="61" priority="7">
+    <cfRule type="expression" dxfId="65" priority="7">
       <formula>G8&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="8">
+    <cfRule type="expression" dxfId="64" priority="8">
       <formula>G8&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="9">
+    <cfRule type="expression" dxfId="63" priority="9">
       <formula>G8&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>G15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="5">
+    <cfRule type="expression" dxfId="61" priority="5">
       <formula>G15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="6">
+    <cfRule type="expression" dxfId="60" priority="6">
       <formula>G15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="55" priority="19">
+    <cfRule type="expression" dxfId="59" priority="19">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="20">
+    <cfRule type="expression" dxfId="58" priority="20">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="53" priority="17">
+    <cfRule type="expression" dxfId="57" priority="17">
       <formula>I8=H8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="18">
+    <cfRule type="expression" dxfId="56" priority="18">
       <formula>I8&lt;H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="51" priority="15">
+    <cfRule type="expression" dxfId="55" priority="15">
       <formula>I15=H15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="16">
+    <cfRule type="expression" dxfId="54" priority="16">
       <formula>I15&lt;H15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9102,7 +9058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05825951-C537-45E0-A799-78A8AA3257AC}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -9899,20 +9855,20 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>280</v>
@@ -10488,116 +10444,116 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>B33&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>B33&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>B33&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>B35&lt;B34</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="21">
+    <cfRule type="expression" dxfId="49" priority="21">
       <formula>B35=B34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="44" priority="17">
+    <cfRule type="expression" dxfId="48" priority="17">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="18">
+    <cfRule type="expression" dxfId="47" priority="18">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="19">
+    <cfRule type="expression" dxfId="46" priority="19">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="41" priority="14">
+    <cfRule type="expression" dxfId="45" priority="14">
       <formula>G11&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="15">
+    <cfRule type="expression" dxfId="44" priority="15">
       <formula>G11&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="16">
+    <cfRule type="expression" dxfId="43" priority="16">
       <formula>G11&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="38" priority="10">
+    <cfRule type="expression" dxfId="42" priority="10">
       <formula>G16&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="11">
+    <cfRule type="expression" dxfId="41" priority="11">
       <formula>G16&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="12">
+    <cfRule type="expression" dxfId="40" priority="12">
       <formula>G16&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="39" priority="7">
       <formula>G21&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="38" priority="8">
       <formula>G21&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>G21&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>G26&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>G26&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>G26&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="33" priority="29">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="31" priority="28">
       <formula>I11&lt;H11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>I11=H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>I16=H16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="28" priority="25">
       <formula>I16&lt;H16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>I21=H21</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>I21&lt;H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="25" priority="22">
       <formula>I26&lt;H26</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>I26=H26</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10694,20 +10650,20 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>280</v>
@@ -10931,78 +10887,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>B15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>B15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>B15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>B17=B16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>B17&lt;B16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>G7&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>G7&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>G7&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>G10&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>G10&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>G10&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>I7=H7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>I7&lt;H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>I10=H10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>I10&lt;H10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11545,17 +11501,17 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>222</v>
@@ -11569,7 +11525,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <f>B5+B6+B7</f>
@@ -11607,7 +11563,7 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5">
         <f>C4/3</f>
         <v>5</v>
       </c>
@@ -11622,7 +11578,7 @@
       <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6">
         <f>C4/3</f>
         <v>5</v>
       </c>
@@ -11637,17 +11593,14 @@
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7">
         <f>C4/3</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9">
         <f>B10+B11+B12+B13</f>
@@ -11660,11 +11613,10 @@
       <c r="D9" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9">
         <f>(E10*F10+E11*F11+E12*F12+E13*F13)/(C9)</f>
         <v>10</v>
       </c>
-      <c r="F9" s="22"/>
       <c r="G9">
         <f>ROUND(E9, 2)</f>
         <v>10</v>
@@ -11679,7 +11631,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -11693,7 +11645,7 @@
       <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10">
         <f>C10*2/5</f>
         <v>4.5999999999999996</v>
       </c>
@@ -11708,7 +11660,7 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11">
         <f>C10*2/5</f>
         <v>4.5999999999999996</v>
       </c>
@@ -11723,7 +11675,7 @@
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12">
         <f>C10/5</f>
         <v>2.2999999999999998</v>
       </c>
@@ -11744,17 +11696,14 @@
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13">
         <f>C13</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B15">
         <f>B16+B17</f>
@@ -11767,11 +11716,10 @@
       <c r="D15" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15">
         <f>(E16*F16+E17*F17)/(C15)</f>
         <v>10</v>
       </c>
-      <c r="F15" s="22"/>
       <c r="G15">
         <f>ROUND(E15,2)</f>
         <v>10</v>
@@ -11800,14 +11748,14 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16">
         <f>C16</f>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -11821,17 +11769,14 @@
       <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17">
         <f>C17</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F18" s="22"/>
-    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B19">
         <f>B20+B21</f>
@@ -11844,11 +11789,10 @@
       <c r="D19" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19">
         <f>(E20*F20+E21*F21)/(C19)</f>
         <v>10</v>
       </c>
-      <c r="F19" s="22"/>
       <c r="G19">
         <f>ROUND(E19,2)</f>
         <v>10</v>
@@ -11877,7 +11821,7 @@
       <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20">
         <f>C20</f>
         <v>5</v>
       </c>
@@ -11898,17 +11842,14 @@
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21">
         <f>C21</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23">
         <f>B24+B25+B26+B27</f>
@@ -11925,7 +11866,6 @@
         <f>(E24*F24+E25*F25+E26*F26+E27*F27)/(C23)</f>
         <v>10</v>
       </c>
-      <c r="F23" s="22"/>
       <c r="G23">
         <f>ROUND(E23,2)</f>
         <v>10</v>
@@ -11939,11 +11879,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="23" t="str">
+      <c r="A24" t="str">
         <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Algo C expert",IF('Read me'!B4="BIOST","Biocellulaire",IF('Read me'!B4="CENT","Introduction to economics",IF('Read me'!B4="EST","Changement climatique et sociétés",IF('Read me'!B4="BIAST","Bio veg (DA)",IF('Read me'!B4="MECA","Mathématiques - compléments","autre")))))))</f>
         <v>Math</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24">
         <f>IF('Read me'!B4="CGSI",60,IF('Read me'!B4="CIR",45,IF('Read me'!B4="BIOST",60,IF('Read me'!B4="CENT",30,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",15,IF('Read me'!B4="MECA",15,0)))))))</f>
         <v>60</v>
       </c>
@@ -11957,21 +11897,21 @@
       <c r="E24">
         <v>10</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24">
         <f>C24</f>
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="24" t="str">
+      <c r="A25" t="str">
         <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Web frontend",IF('Read me'!B4="BIOST","Histologie",IF('Read me'!B4="CENT","Leadership",IF('Read me'!B4="EST","Changement climatique : causes physiques",IF('Read me'!B4="BIAST","Physio veg (DA; nov)",IF('Read me'!B4="MECA","Sciences de l'ingénieur - compléments","autre")))))))</f>
         <v>Physique</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25">
         <f>IF('Read me'!B4="CGSI",15,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",15,IF('Read me'!B4="CENT",30,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",15,IF('Read me'!B4="MECA",15,0)))))))</f>
         <v>15</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25">
         <f>IF('Read me'!B4="CGSI",2.5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",2.5,IF('Read me'!B4="CENT",5,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",2.5,IF('Read me'!B4="MECA",2.5,0)))))))</f>
         <v>2.5</v>
       </c>
@@ -11981,21 +11921,21 @@
       <c r="E25">
         <v>10</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25">
         <f>C25</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="24" t="str">
+      <c r="A26" t="str">
         <f>IF('Read me'!B4="CGSI","Sciences de l'ingénieur",IF('Read me'!B4="CIR","Linux",IF('Read me'!B4="BIOST","Biochimie",IF('Read me'!B4="CENT","Introduction to marketing",IF('Read me'!B4="EST","Ecologie générale",IF('Read me'!B4="BIAST","Ecologie générale (FP+EST)",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
         <v>Sciences de l'ingénieur</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26">
         <f>IF('Read me'!B4="CGSI",15,IF('Read me'!B4="CIR",15,IF('Read me'!B4="BIOST",15,IF('Read me'!B4="CENT",30,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",60,0)))))))</f>
         <v>15</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26">
         <f>IF('Read me'!B4="CGSI",2.5,IF('Read me'!B4="CIR",2.5,IF('Read me'!B4="BIOST",2.5,IF('Read me'!B4="CENT",5,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",10,0)))))))</f>
         <v>2.5</v>
       </c>
@@ -12005,44 +11945,41 @@
       <c r="E26">
         <v>10</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26">
         <f>C26</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="22" t="str">
+      <c r="A27" t="str">
         <f>IF('Read me'!B4="BIAST","botanique(FP)"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27">
         <f>IF('Read me'!B4="BIAST",30,0)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27">
         <f>IF('Read me'!B4="BIAST",5,0)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="22" t="str">
+      <c r="D27" t="str">
         <f>IF('Read me'!B4="BIAST","note"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27">
         <f>C27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29">
         <f>B23+B19+B15+B9+B4</f>
         <v>390</v>
       </c>
@@ -12050,17 +11987,15 @@
         <f>C15+C9+C4+C19+C23</f>
         <v>64</v>
       </c>
-      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="13">
         <f>(G4*C4+G9*C9+G15*C15+G19*C19+G23*C23)/C29</f>
         <v>10</v>
       </c>
-      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
@@ -12070,7 +12005,6 @@
         <f>ROUND(B30,2)</f>
         <v>10</v>
       </c>
-      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
@@ -12095,117 +12029,117 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="319" priority="19">
+    <cfRule type="expression" dxfId="263" priority="19">
       <formula>B31&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="20">
+    <cfRule type="expression" dxfId="262" priority="20">
       <formula>B31&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="21">
+    <cfRule type="expression" dxfId="261" priority="21">
       <formula>B31&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="316" priority="11">
+    <cfRule type="expression" dxfId="260" priority="11">
       <formula>B33=B32</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="12">
+    <cfRule type="expression" dxfId="259" priority="12">
       <formula>B33&lt;B32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="314" priority="28">
+    <cfRule type="expression" dxfId="258" priority="28">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="29">
+    <cfRule type="expression" dxfId="257" priority="29">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="30">
+    <cfRule type="expression" dxfId="256" priority="30">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="311" priority="25">
+    <cfRule type="expression" dxfId="255" priority="25">
       <formula>G9&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="26">
+    <cfRule type="expression" dxfId="254" priority="26">
       <formula>G9&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="27">
+    <cfRule type="expression" dxfId="253" priority="27">
       <formula>G9&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="308" priority="22">
+    <cfRule type="expression" dxfId="252" priority="22">
       <formula>G15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="23">
+    <cfRule type="expression" dxfId="251" priority="23">
       <formula>G15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="24">
+    <cfRule type="expression" dxfId="250" priority="24">
       <formula>G15&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="249" priority="4">
+      <formula>G19&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="5">
+      <formula>G19&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="6">
+      <formula>G19&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="246" priority="1">
+      <formula>G23&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="2">
+      <formula>G23&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="3">
+      <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="305" priority="17">
+    <cfRule type="expression" dxfId="243" priority="17">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="18">
+    <cfRule type="expression" dxfId="242" priority="18">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="303" priority="15">
+    <cfRule type="expression" dxfId="241" priority="15">
       <formula>I9=H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="16">
+    <cfRule type="expression" dxfId="240" priority="16">
       <formula>I9&lt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="301" priority="13">
+    <cfRule type="expression" dxfId="239" priority="13">
       <formula>I15=H15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="14">
+    <cfRule type="expression" dxfId="238" priority="14">
       <formula>I15&lt;H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="299" priority="9">
+    <cfRule type="expression" dxfId="237" priority="9">
       <formula>I19=H19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="10">
+    <cfRule type="expression" dxfId="236" priority="10">
       <formula>I19&lt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="297" priority="7">
+    <cfRule type="expression" dxfId="235" priority="7">
       <formula>I23=H23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="8">
+    <cfRule type="expression" dxfId="234" priority="8">
       <formula>I23&lt;H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="295" priority="4">
-      <formula>G19&gt;11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="5">
-      <formula>G19&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="293" priority="6">
-      <formula>G19&lt;10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="292" priority="1">
-      <formula>G23&gt;11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="2">
-      <formula>G23&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="3">
-      <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12692,20 +12626,20 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>280</v>
@@ -12716,7 +12650,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <f>B5+B6+B7</f>
@@ -12754,7 +12688,7 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5">
         <f>C4/3</f>
         <v>5</v>
       </c>
@@ -12769,7 +12703,7 @@
       <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6">
         <f>C4/3</f>
         <v>5</v>
       </c>
@@ -12784,17 +12718,14 @@
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7">
         <f>C4/3</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9">
         <f>B10+B11+B12+B13</f>
@@ -12807,11 +12738,10 @@
       <c r="D9" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9">
         <f>(E10*F10+E11*F11+E12*F12+E13*F13)/(C9)</f>
         <v>10</v>
       </c>
-      <c r="F9" s="22"/>
       <c r="G9">
         <f>ROUND(E9, 2)</f>
         <v>10</v>
@@ -12826,7 +12756,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -12840,7 +12770,7 @@
       <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10">
         <f>C10*2/5</f>
         <v>4.5999999999999996</v>
       </c>
@@ -12855,7 +12785,7 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11">
         <f>C10*2/5</f>
         <v>4.5999999999999996</v>
       </c>
@@ -12870,7 +12800,7 @@
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12">
         <f>C10/5</f>
         <v>2.2999999999999998</v>
       </c>
@@ -12891,13 +12821,10 @@
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13">
         <f>C13</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
@@ -12914,11 +12841,10 @@
       <c r="D15" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15">
         <f>(E16*F16+E17*F17)/(C15)</f>
         <v>10</v>
       </c>
-      <c r="F15" s="22"/>
       <c r="G15">
         <f>ROUND(E15,2)</f>
         <v>10</v>
@@ -12947,7 +12873,7 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16">
         <f>C16</f>
         <v>5</v>
       </c>
@@ -12968,17 +12894,14 @@
       <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17">
         <f>C17</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B19">
         <f>B20+B21</f>
@@ -12991,11 +12914,10 @@
       <c r="D19" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19">
         <f>(E20*F20+E21*F21)/(C19)</f>
         <v>10</v>
       </c>
-      <c r="F19" s="22"/>
       <c r="G19">
         <f>ROUND(E19,2)</f>
         <v>10</v>
@@ -13024,7 +12946,7 @@
       <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20">
         <f>C20</f>
         <v>5</v>
       </c>
@@ -13045,17 +12967,14 @@
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21">
         <f>C21</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23">
         <f>B24+B25+B26+B27</f>
@@ -13072,7 +12991,6 @@
         <f>(E24*F24+E25*F25+E26*F26+E27*F27)/(C23)</f>
         <v>10</v>
       </c>
-      <c r="F23" s="22"/>
       <c r="G23">
         <f>ROUND(E23,2)</f>
         <v>10</v>
@@ -13086,11 +13004,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="23" t="str">
+      <c r="A24" t="str">
         <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Algo C expert",IF('Read me'!B4="BIOST","Physio humaine",IF('Read me'!B4="CENT","Les fondamentaux de la relation client 4.0",IF('Read me'!B4="EST","Environnement et sociéré",IF('Read me'!B4="BIAST","Biocell",IF('Read me'!B4="MECA","Mathématiques - compléments","autre")))))))</f>
         <v>Math</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24">
         <f>IF('Read me'!B4="CGSI",60,IF('Read me'!B4="CIR",45,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",15,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",15,0)))))))</f>
         <v>60</v>
       </c>
@@ -13104,21 +13022,21 @@
       <c r="E24">
         <v>10</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24">
         <f>C24</f>
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="24" t="str">
+      <c r="A25" t="str">
         <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Web frontend",IF('Read me'!B4="BIOST","Anatomie",IF('Read me'!B4="CENT","Histoire de l'économie et évolution des modèles économiques",IF('Read me'!B4="EST","Chimie",IF('Read me'!B4="BIAST","Biochimie",IF('Read me'!B4="MECA","Sciences de l'ingénieur - compléments","autre")))))))</f>
         <v>Physique</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25">
         <f>IF('Read me'!B4="CGSI",15,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",15,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",15,IF('Read me'!B4="MECA",15,0)))))))</f>
         <v>15</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25">
         <f>IF('Read me'!B4="CGSI",2.5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",2.5,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",2.5,IF('Read me'!B4="MECA",2.5,0)))))))</f>
         <v>2.5</v>
       </c>
@@ -13128,21 +13046,21 @@
       <c r="E25">
         <v>10</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25">
         <f>C25</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="24" t="str">
+      <c r="A26" t="str">
         <f>IF('Read me'!B4="CGSI","Sciences de l'ingénieur",IF('Read me'!B4="CIR","Réseaux",IF('Read me'!B4="BIOST","Chimie",IF('Read me'!B4="CENT","Theory of orga",IF('Read me'!B4="EST","Technologie pour l'environnement",IF('Read me'!B4="BIAST","Chimie",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
         <v>Sciences de l'ingénieur</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26">
         <f>IF('Read me'!B4="CGSI",15,IF('Read me'!B4="CIR",15,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",30,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",60,0)))))))</f>
         <v>15</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26">
         <f>IF('Read me'!B4="CGSI",2.5,IF('Read me'!B4="CIR",2.5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",5,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",10,0)))))))</f>
         <v>2.5</v>
       </c>
@@ -13152,44 +13070,41 @@
       <c r="E26">
         <v>10</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26">
         <f>C26</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="22" t="str">
+      <c r="A27" t="str">
         <f>IF('Read me'!B4="CENT","Introduction to entrepreneurship",IF('Read me'!B4="BIAST","Physio veg"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27">
         <f>IF('Read me'!B4="CENT",30,IF('Read me'!B4="BIAST",15,0))</f>
         <v>0</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27">
         <f>IF('Read me'!B4="CENT",5,IF('Read me'!B4="BIAST",2.5,0))</f>
         <v>0</v>
       </c>
-      <c r="D27" s="22" t="str">
+      <c r="D27" t="str">
         <f>IF('Read me'!B4="CENT","note",IF('Read me'!B4="BIAST","note"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27">
         <f>C27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29">
         <f>B23+B19+B15+B9+B4</f>
         <v>405</v>
       </c>
@@ -13197,17 +13112,15 @@
         <f>C15+C9+C4+C19+C23</f>
         <v>66.5</v>
       </c>
-      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="13">
         <f>(G4*C4+G9*C9+G15*C15+G19*C19+G23*C23)/C29</f>
         <v>10</v>
       </c>
-      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
@@ -13217,7 +13130,6 @@
         <f>ROUND(B30,2)</f>
         <v>10</v>
       </c>
-      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
@@ -13242,117 +13154,117 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="259" priority="19">
+    <cfRule type="expression" dxfId="233" priority="19">
       <formula>B31&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="20">
+    <cfRule type="expression" dxfId="232" priority="20">
       <formula>B31&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="21">
+    <cfRule type="expression" dxfId="231" priority="21">
       <formula>B31&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="256" priority="11">
+    <cfRule type="expression" dxfId="230" priority="11">
       <formula>B33=B32</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="12">
+    <cfRule type="expression" dxfId="229" priority="12">
       <formula>B33&lt;B32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="254" priority="28">
+    <cfRule type="expression" dxfId="228" priority="28">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="29">
+    <cfRule type="expression" dxfId="227" priority="29">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="30">
+    <cfRule type="expression" dxfId="226" priority="30">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="251" priority="25">
+    <cfRule type="expression" dxfId="225" priority="25">
       <formula>G9&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="26">
+    <cfRule type="expression" dxfId="224" priority="26">
       <formula>G9&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="27">
+    <cfRule type="expression" dxfId="223" priority="27">
       <formula>G9&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="248" priority="22">
+    <cfRule type="expression" dxfId="222" priority="22">
       <formula>G15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="23">
+    <cfRule type="expression" dxfId="221" priority="23">
       <formula>G15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="24">
+    <cfRule type="expression" dxfId="220" priority="24">
       <formula>G15&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="219" priority="4">
+      <formula>G19&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="5">
+      <formula>G19&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="6">
+      <formula>G19&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="216" priority="1">
+      <formula>G23&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="2">
+      <formula>G23&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="3">
+      <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="245" priority="17">
+    <cfRule type="expression" dxfId="213" priority="17">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="18">
+    <cfRule type="expression" dxfId="212" priority="18">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="243" priority="15">
+    <cfRule type="expression" dxfId="211" priority="15">
       <formula>I9=H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="16">
+    <cfRule type="expression" dxfId="210" priority="16">
       <formula>I9&lt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="241" priority="13">
+    <cfRule type="expression" dxfId="209" priority="13">
       <formula>I15=H15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="14">
+    <cfRule type="expression" dxfId="208" priority="14">
       <formula>I15&lt;H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="239" priority="9">
+    <cfRule type="expression" dxfId="207" priority="9">
       <formula>I19=H19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="10">
+    <cfRule type="expression" dxfId="206" priority="10">
       <formula>I19&lt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="237" priority="7">
+    <cfRule type="expression" dxfId="205" priority="7">
       <formula>I23=H23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="8">
+    <cfRule type="expression" dxfId="204" priority="8">
       <formula>I23&lt;H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="235" priority="4">
-      <formula>G19&gt;11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="5">
-      <formula>G19&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="6">
-      <formula>G19&lt;10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="232" priority="1">
-      <formula>G23&gt;11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="2">
-      <formula>G23&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="3">
-      <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13447,17 +13359,17 @@
         <v>189</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>191</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>222</v>
@@ -13471,7 +13383,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <f>B5+B6+B7</f>
@@ -13509,7 +13421,7 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5">
         <f>C4/3</f>
         <v>5</v>
       </c>
@@ -13524,7 +13436,7 @@
       <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6">
         <f>C4/3</f>
         <v>5</v>
       </c>
@@ -13539,17 +13451,14 @@
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7">
         <f>C4/3</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9">
         <f>B10+B11+B12+B13</f>
@@ -13562,11 +13471,10 @@
       <c r="D9" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9">
         <f>(E10*F10+E11*F11+E12*F12+E13*F13)/(C9)</f>
         <v>10</v>
       </c>
-      <c r="F9" s="22"/>
       <c r="G9">
         <f>ROUND(E9, 2)</f>
         <v>10</v>
@@ -13581,7 +13489,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -13595,7 +13503,7 @@
       <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10">
         <f>C10*2/5</f>
         <v>4.5999999999999996</v>
       </c>
@@ -13610,7 +13518,7 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11">
         <f>C10*2/5</f>
         <v>4.5999999999999996</v>
       </c>
@@ -13625,7 +13533,7 @@
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12">
         <f>C10/5</f>
         <v>2.2999999999999998</v>
       </c>
@@ -13646,13 +13554,10 @@
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13">
         <f>C13</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
@@ -13668,11 +13573,10 @@
       <c r="D15" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15">
         <f>(E16*F16+E17*F17)/(C15)</f>
         <v>10</v>
       </c>
-      <c r="F15" s="22"/>
       <c r="G15">
         <f>ROUND(E15,2)</f>
         <v>10</v>
@@ -13686,7 +13590,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="22" t="str">
+      <c r="A16" t="str">
         <f>IF('Read me'!B4="CIR","Algo C++","Python")</f>
         <v>Python</v>
       </c>
@@ -13702,7 +13606,7 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16">
         <f>C16</f>
         <v>5</v>
       </c>
@@ -13723,17 +13627,14 @@
       <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17">
         <f>C17</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F18" s="22"/>
-    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B19">
         <f>B20+B21</f>
@@ -13746,11 +13647,10 @@
       <c r="D19" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19">
         <f>(E20*F20+E21*F21)/(C19)</f>
         <v>10</v>
       </c>
-      <c r="F19" s="22"/>
       <c r="G19">
         <f>ROUND(E19,2)</f>
         <v>10</v>
@@ -13779,7 +13679,7 @@
       <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20">
         <f>C20</f>
         <v>5</v>
       </c>
@@ -13800,17 +13700,14 @@
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21">
         <f>C21</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23">
         <f>B24+B25+B26+B27</f>
@@ -13827,7 +13724,6 @@
         <f>(E24*F24+E25*F25+E26*F26+E27*F27)/(C23)</f>
         <v>10</v>
       </c>
-      <c r="F23" s="22"/>
       <c r="G23">
         <f>ROUND(E23,2)</f>
         <v>10</v>
@@ -13841,11 +13737,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="23" t="str">
+      <c r="A24" t="str">
         <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Algo avancé",IF('Read me'!B4="BIOST","Biochimie métabolique",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Numérique et développement durable",IF('Read me'!B4="BIAST","Géologie",IF('Read me'!B4="MECA","Sciences de l'ingénieur compléments","autre")))))))</f>
         <v>Math</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24">
         <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",15,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",15,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",30,0)))))))</f>
         <v>30</v>
       </c>
@@ -13859,21 +13755,21 @@
       <c r="E24">
         <v>10</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24">
         <f>C24</f>
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="24" t="str">
+      <c r="A25" t="str">
         <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Serveur Web",IF('Read me'!B4="BIOST","Génétique humaine",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Ressources naturelles",IF('Read me'!B4="BIAST","Pédo",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
         <v>Physique</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25">
         <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",15,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",60,0)))))))</f>
         <v>30</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25">
         <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",2.5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",10,0)))))))</f>
         <v>5</v>
       </c>
@@ -13883,69 +13779,66 @@
       <c r="E25">
         <v>10</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25">
         <f>C25</f>
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="24" t="str">
+      <c r="A26" t="str">
         <f>IF('Read me'!B4="CGSI","Sciences de l'ingénieur",IF('Read me'!B4="CIR","Web backend",IF('Read me'!B4="BIOST","Physio humaine",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","SIG",IF('Read me'!B4="BIAST","Agro technique",IF('Read me'!B4="MECA"," ","autre")))))))</f>
         <v>Sciences de l'ingénieur</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26">
         <f>IF('Read me'!B4="CGSI",30,IF('Read me'!B4="CIR",30,IF('Read me'!B4="BIOST",30,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",30,IF('Read me'!B4="BIAST",30,IF('Read me'!B4="MECA",0,0)))))))</f>
         <v>30</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26">
         <f>IF('Read me'!B4="CGSI",5,IF('Read me'!B4="CIR",5,IF('Read me'!B4="BIOST",5,IF('Read me'!B4="CENT",0,IF('Read me'!B4="EST",5,IF('Read me'!B4="BIAST",5,IF('Read me'!B4="MECA",0,0)))))))</f>
         <v>5</v>
       </c>
-      <c r="D26" s="22" t="str">
+      <c r="D26" t="str">
         <f>IF('Read me'!B4="MECA"," ","note")</f>
         <v>note</v>
       </c>
-      <c r="E26" s="22">
-        <v>10</v>
-      </c>
-      <c r="F26" s="22">
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <f>C26</f>
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="22" t="str">
+      <c r="A27" t="str">
         <f>IF('Read me'!B4="CIR","BDD",IF('Read me'!B4="EST","Biocellulaire"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27">
         <f>IF('Read me'!B4="CIR",30,IF('Read me'!B4="EST",15,0))</f>
         <v>0</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27">
         <f>IF('Read me'!B4="CIR",5,IF('Read me'!B4="EST",2.5,0))</f>
         <v>0</v>
       </c>
-      <c r="D27" s="22" t="str">
+      <c r="D27" t="str">
         <f>IF('Read me'!B4="CIR","note",IF('Read me'!B4="EST","note"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="22">
-        <v>10</v>
-      </c>
-      <c r="F27" s="22">
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <f>C27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29">
         <f>B23+B19+B15+B9+B4</f>
         <v>390</v>
       </c>
@@ -13953,18 +13846,15 @@
         <f>C15+C9+C4+C19+C23</f>
         <v>64</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="13">
         <f>(G4*C4+G9*C9+G15*C15+G19*C19+G23*C23)/C29</f>
         <v>10</v>
       </c>
-      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
@@ -13974,7 +13864,6 @@
         <f>ROUND(B30,2)</f>
         <v>10</v>
       </c>
-      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
@@ -13999,117 +13888,117 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="229" priority="19">
+    <cfRule type="expression" dxfId="203" priority="19">
       <formula>B31&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="20">
+    <cfRule type="expression" dxfId="202" priority="20">
       <formula>B31&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="21">
+    <cfRule type="expression" dxfId="201" priority="21">
       <formula>B31&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="226" priority="11">
+    <cfRule type="expression" dxfId="200" priority="11">
       <formula>B33=B32</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="12">
+    <cfRule type="expression" dxfId="199" priority="12">
       <formula>B33&lt;B32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="224" priority="28">
+    <cfRule type="expression" dxfId="198" priority="28">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="29">
+    <cfRule type="expression" dxfId="197" priority="29">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="30">
+    <cfRule type="expression" dxfId="196" priority="30">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="221" priority="25">
+    <cfRule type="expression" dxfId="195" priority="25">
       <formula>G9&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="26">
+    <cfRule type="expression" dxfId="194" priority="26">
       <formula>G9&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="27">
+    <cfRule type="expression" dxfId="193" priority="27">
       <formula>G9&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="218" priority="22">
+    <cfRule type="expression" dxfId="192" priority="22">
       <formula>G15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="23">
+    <cfRule type="expression" dxfId="191" priority="23">
       <formula>G15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="24">
+    <cfRule type="expression" dxfId="190" priority="24">
       <formula>G15&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="189" priority="4">
+      <formula>G19&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="5">
+      <formula>G19&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="6">
+      <formula>G19&lt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="expression" dxfId="186" priority="1">
+      <formula>G23&gt;11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="2">
+      <formula>G23&gt;=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="3">
+      <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="215" priority="17">
+    <cfRule type="expression" dxfId="183" priority="17">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="18">
+    <cfRule type="expression" dxfId="182" priority="18">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="213" priority="15">
+    <cfRule type="expression" dxfId="181" priority="15">
       <formula>I9=H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="16">
+    <cfRule type="expression" dxfId="180" priority="16">
       <formula>I9&lt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="211" priority="13">
+    <cfRule type="expression" dxfId="179" priority="13">
       <formula>I15=H15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="14">
+    <cfRule type="expression" dxfId="178" priority="14">
       <formula>I15&lt;H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="209" priority="9">
+    <cfRule type="expression" dxfId="177" priority="9">
       <formula>I19=H19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="10">
+    <cfRule type="expression" dxfId="176" priority="10">
       <formula>I19&lt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="207" priority="7">
+    <cfRule type="expression" dxfId="175" priority="7">
       <formula>I23=H23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="8">
+    <cfRule type="expression" dxfId="174" priority="8">
       <formula>I23&lt;H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="205" priority="4">
-      <formula>G19&gt;11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="5">
-      <formula>G19&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="6">
-      <formula>G19&lt;10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="202" priority="1">
-      <formula>G23&gt;11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="2">
-      <formula>G23&gt;=10</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="3">
-      <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISEN_Bulletin_Excel.xlsx
+++ b/ISEN_Bulletin_Excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Framework_Arthur\Downloads\Project suite\Bulletins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C502F735-EC0C-4AF0-8CF6-D10ABBCBDDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED437D7-38C1-4FF2-B577-BC1646E5A200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="851" xr2:uid="{F3516D6A-EC28-40DF-9BC6-39873143E270}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="21" r:id="rId1"/>
-    <sheet name="Menus déroulants" sheetId="22" r:id="rId2"/>
+    <sheet name="Menus déroulants" sheetId="22" state="hidden" r:id="rId2"/>
     <sheet name="Notes S1" sheetId="1" r:id="rId3"/>
     <sheet name="Bulletin S1" sheetId="2" r:id="rId4"/>
     <sheet name="Notes S2" sheetId="3" r:id="rId5"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="330">
   <si>
     <t>Titre</t>
   </si>
@@ -1025,6 +1025,42 @@
   </si>
   <si>
     <t>autre diploome anglais niveau B2 ou +</t>
+  </si>
+  <si>
+    <t>Semestre</t>
+  </si>
+  <si>
+    <t>Moyenne semestre</t>
+  </si>
+  <si>
+    <t>GPA semestre</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Moyenne année</t>
+  </si>
+  <si>
+    <t>Nombre étudiants dans la classe</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Classement</t>
+  </si>
+  <si>
+    <t>Nombre étudiants</t>
+  </si>
+  <si>
+    <t>nombre étudiants</t>
+  </si>
+  <si>
+    <t>classement</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1156,11 +1192,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1181,6 +1228,24 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1193,27 +1258,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="296">
+  <dxfs count="282">
     <dxf>
       <fill>
         <patternFill>
@@ -1266,6 +1318,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1280,6 +1339,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1315,6 +1381,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1329,6 +1409,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1336,6 +1423,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1357,6 +1507,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1385,6 +1542,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1399,6 +1570,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1406,6 +1598,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1427,6 +1633,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1441,6 +1654,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1448,6 +1668,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1504,6 +1731,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1525,6 +1766,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1560,6 +1843,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1574,6 +1871,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1644,6 +1948,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1707,6 +2039,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1756,6 +2095,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1784,6 +2130,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2134,6 +2508,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2197,6 +2599,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2246,6 +2655,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2302,6 +2718,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2632,622 +3076,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3286,6 +3114,132 @@
       <font>
         <color theme="0"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
@@ -3467,7 +3421,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Read me'!$A$8:$J$8</c:f>
+              <c:f>'Read me'!$B$11:$K$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3505,7 +3459,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Read me'!$A$9:$J$9</c:f>
+              <c:f>'Read me'!$B$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3636,7 +3590,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Read me'!$A$8:$J$8</c:f>
+              <c:f>'Read me'!$B$11:$K$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3674,7 +3628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Read me'!$A$10:$J$10</c:f>
+              <c:f>'Read me'!$B$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3805,7 +3759,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Read me'!$A$8:$J$8</c:f>
+              <c:f>'Read me'!$B$11:$K$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3843,7 +3797,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Read me'!$A$11:$J$11</c:f>
+              <c:f>'Read me'!$B$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4170,7 +4124,487 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Evolution du GPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Read me'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPA semestre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Read me'!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA26-4C92-A622-9FE4F2BAAF4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1246389391"/>
+        <c:axId val="1246389871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1246389391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Semestre</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246389871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1246389871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>GPA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246389391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4713,20 +5147,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>13656</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6121</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>549388</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>132205</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>775335</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4746,6 +5683,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>792827</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161636</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2B56FB-EDD3-18B9-7E60-DAA2C81436E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5071,10 +6044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0545D5-B693-46C9-99FB-DE6A8E65116F}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5119,421 +6092,552 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="20">
+        <v>35</v>
+      </c>
+      <c r="C8" s="20">
+        <v>35</v>
+      </c>
+      <c r="D8" s="20">
+        <v>35</v>
+      </c>
+      <c r="E8" s="20">
+        <v>35</v>
+      </c>
+      <c r="F8" s="20">
+        <v>35</v>
+      </c>
+      <c r="G8" s="20">
+        <v>35</v>
+      </c>
+      <c r="H8" s="20">
+        <v>35</v>
+      </c>
+      <c r="I8" s="20">
+        <v>35</v>
+      </c>
+      <c r="J8" s="20">
+        <v>35</v>
+      </c>
+      <c r="K8" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="G11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="H11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="I11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="J11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="K11" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="0.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="0.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+    <row r="12" spans="1:11" ht="0.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="0.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C13" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D13" s="2">
         <v>13</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E13" s="2">
         <v>13</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F13" s="2">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
+      <c r="G13" s="11">
         <v>13</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H13" s="11">
         <v>13</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I13" s="11">
         <v>13</v>
       </c>
-      <c r="I10" s="11">
+      <c r="J13" s="11">
         <v>13</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K13" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="24">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="19">
         <f>'Bulletin S1'!B31</f>
         <v>10</v>
       </c>
-      <c r="B11" s="24">
+      <c r="C14" s="19">
         <f>'Bulletin S2'!B31</f>
         <v>10</v>
       </c>
-      <c r="C11" s="24">
+      <c r="D14" s="19">
         <f>'Bulletin S3'!B31</f>
         <v>10</v>
       </c>
-      <c r="D11" s="24">
+      <c r="E14" s="19">
         <f>'Bulletin S4'!B30</f>
         <v>10</v>
       </c>
-      <c r="E11" s="24">
+      <c r="F14" s="19">
         <f>'Bulletin S5'!B36</f>
         <v>10</v>
       </c>
-      <c r="F11" s="24">
+      <c r="G14" s="19">
         <f>'Bulletin S6'!B36</f>
         <v>10</v>
       </c>
-      <c r="G11" s="24">
+      <c r="H14" s="19">
         <f>'Bulletin S7'!B34</f>
         <v>10</v>
       </c>
-      <c r="H11" s="24">
+      <c r="I14" s="19">
         <f>'Bulletin S8'!B20</f>
         <v>10</v>
       </c>
-      <c r="I11" s="24">
+      <c r="J14" s="19">
         <f>'Bulletin S9'!B33</f>
         <v>10</v>
       </c>
-      <c r="J11" s="24">
+      <c r="K14" s="19">
         <f>'Bulletin S10'!B15</f>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="18" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="21">
+        <f>'Bulletin S1'!B36</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="21">
+        <f>'Bulletin S2'!B36</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="21">
+        <f>'Bulletin S3'!B36</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="21">
+        <f>'Bulletin S4'!B35</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="21">
+        <f>'Bulletin S5'!B41</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="21">
+        <f>'Bulletin S6'!B41</f>
+        <v>2</v>
+      </c>
+      <c r="H15" s="21">
+        <f>'Bulletin S7'!B39</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="21">
+        <f>'Bulletin S8'!B25</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="21">
+        <f>'Bulletin S9'!B38</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="21">
+        <f>'Bulletin S10'!B20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="18" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18" t="s">
+      <c r="I16" s="25"/>
+      <c r="J16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="16">
-        <f>AVERAGE(A11,B11)</f>
-        <v>10</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16">
-        <f>AVERAGE(C11,D11)</f>
-        <v>10</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16">
-        <f>AVERAGE(E11,F11)</f>
-        <v>10</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16">
-        <f>AVERAGE(G11,H11)</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16">
-        <f>AVERAGE(I11,J11)</f>
-        <v>10</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="20" t="s">
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="22">
+        <f>AVERAGE(B14,C14)</f>
+        <v>10</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22">
+        <f>AVERAGE(D14,E14)</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="22">
+        <f>AVERAGE(F14,G14)</f>
+        <v>10</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22">
+        <f>AVERAGE(H14,I14)</f>
+        <v>10</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="22">
+        <f>AVERAGE(J14,K14)</f>
+        <v>10</v>
+      </c>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B15" s="23" t="str">
-        <f>IF(D11+E11+F11&gt;=13*3,"OUI","NON")</f>
+      <c r="B19" s="18" t="str">
+        <f>IF(AND(E14+F14+G14&gt;=13*3, B4="CIR"),"OUI","NON")</f>
         <v>NON</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="20" t="s">
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="23" t="str">
-        <f>IF(E11+F11&gt;=26,"OUI","NON")</f>
+      <c r="B20" s="18" t="str">
+        <f>IF(F14+G14&gt;=26,"OUI","NON")</f>
         <v>NON</v>
       </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="21" t="str">
-        <f>IF(E11+F11+G11+H11&gt;=13*4,"OUI","NON")</f>
+      <c r="B21" s="17" t="str">
+        <f>IF(F14+G14+H14+I14&gt;=13*4,"OUI","NON")</f>
         <v>NON</v>
       </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="17"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B23" s="17">
         <f>'Bulletin S1'!B33 + 'Bulletin S2'!B33 + 'Bulletin S3'!B33 + 'Bulletin S4'!B32 + 'Bulletin S5'!B38 + 'Bulletin S6'!B38 + 'Bulletin S7'!B36 + 'Bulletin S8'!B22 + 'Bulletin S9'!B35 + 'Bulletin S10'!B17</f>
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B20" s="21">
-        <f>300-B19</f>
+      <c r="B24" s="17">
+        <f>300-B23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="20" t="s">
+    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B25" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B26" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B27" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B28" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B29" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B30" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B31" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B32" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="22"/>
-      <c r="B29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="21" t="str">
-        <f>IF(AND(B19=300, B21&gt;=17, B22="OUI", B23="OUI", B24="OUI", B25="OUI", B26="OUI", OR(B27&gt;=785,B28="OUI")),"OUI","NON")</f>
+      <c r="B34" s="17" t="str">
+        <f>IF(AND(B23=300, B25&gt;=17, B26="OUI", B27="OUI", B28="OUI", B29="OUI", B30="OUI", OR(B31&gt;=785,B32="OUI")),"OUI","NON")</f>
         <v>NON</v>
       </c>
-      <c r="C30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A9:J11">
-    <cfRule type="cellIs" dxfId="295" priority="51" operator="between">
+  <conditionalFormatting sqref="B19:B22">
+    <cfRule type="expression" dxfId="281" priority="31">
+      <formula>B19="OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="32">
+      <formula>B19="NON"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="279" priority="29">
+      <formula>B23=300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="30">
+      <formula>B23&lt;300</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="277" priority="27">
+      <formula>B24=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="28">
+      <formula>B24&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="275" priority="25">
+      <formula>B25&gt;=17</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="26">
+      <formula>B25&lt;17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B30">
+    <cfRule type="expression" dxfId="273" priority="1">
+      <formula>B26="OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="2">
+      <formula>B26="NON"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="271" priority="23">
+      <formula>B31&gt;=785</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="24">
+      <formula>B31&lt;785</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="269" priority="21">
+      <formula>B32="OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="22">
+      <formula>B32="NON"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="267" priority="3">
+      <formula>B34="OUI"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="4">
+      <formula>B34="NON"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:J17">
+    <cfRule type="expression" dxfId="265" priority="55">
+      <formula>AND(B14&gt;=10, C14&gt;=10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="56">
+      <formula>OR(B14&lt;10, C14&lt;10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:K14">
+    <cfRule type="cellIs" dxfId="263" priority="51" operator="between">
       <formula>10</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="262" priority="52" operator="between">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:J13">
-    <cfRule type="expression" dxfId="293" priority="37">
-      <formula>AND(A11&gt;=10, B11&gt;=10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="38">
-      <formula>OR(A11&lt;10, B11&lt;10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B18">
-    <cfRule type="expression" dxfId="291" priority="31">
-      <formula>B15="OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="32">
-      <formula>B15="NON"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="289" priority="29">
-      <formula>B19=300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="30">
-      <formula>B19&lt;300</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="287" priority="27">
-      <formula>B20=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="28">
-      <formula>B20&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="285" priority="25">
-      <formula>B21&gt;=17</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="26">
-      <formula>B21&lt;17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="283" priority="21">
-      <formula>B28="OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="282" priority="22">
-      <formula>B28="NON"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="281" priority="23">
-      <formula>B27&gt;=785</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="24">
-      <formula>B27&lt;785</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>B30="OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>B30="NON"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B26">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>B22="OUI"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>B22="NON"</formula>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="261" priority="53">
+      <formula>AND(K14&gt;=10, #REF!&gt;=10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="54">
+      <formula>OR(K14&lt;10, #REF!&lt;10)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5557,7 +6661,7 @@
           <x14:formula1>
             <xm:f>'Menus déroulants'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B5 B28 B22:B26</xm:sqref>
+          <xm:sqref>B5 B32 B26:B30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5567,10 +6671,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796BE60-A328-4A65-9F1F-57212B5C5A82}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5582,15 +6686,17 @@
     <col min="6" max="6" width="6.89453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
         <v>285</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -5616,8 +6722,17 @@
       <c r="I2" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>300</v>
       </c>
@@ -5646,8 +6761,14 @@
         <f>IF(G4&gt;=10,H4,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="14"/>
+      <c r="K4">
+        <f>'Read me'!E8</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>30</v>
       </c>
@@ -5662,7 +6783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>30</v>
       </c>
@@ -5677,7 +6798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>30</v>
       </c>
@@ -5692,7 +6813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>301</v>
       </c>
@@ -5722,8 +6843,14 @@
         <f>IF(G9&gt;=10,H9,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" s="14"/>
+      <c r="K9">
+        <f>'Read me'!E8</f>
+        <v>35</v>
+      </c>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>302</v>
       </c>
@@ -5744,7 +6871,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>30</v>
       </c>
@@ -5759,7 +6886,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>15</v>
       </c>
@@ -5774,7 +6901,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -5795,7 +6922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>303</v>
       </c>
@@ -5824,8 +6951,14 @@
         <f>IF(G15&gt;=10,H15,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="14"/>
+      <c r="K15">
+        <f>'Read me'!E8</f>
+        <v>35</v>
+      </c>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
         <f>IF('Read me'!B4="CIR","Algo C++","Python")</f>
         <v>Python</v>
@@ -5847,7 +6980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -5868,7 +7001,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>305</v>
       </c>
@@ -5898,8 +7031,14 @@
         <f>IF(G19&gt;=10,H19,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" s="14"/>
+      <c r="K19">
+        <f>'Read me'!E8</f>
+        <v>35</v>
+      </c>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -5920,7 +7059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -5941,7 +7080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>306</v>
       </c>
@@ -5971,8 +7110,14 @@
         <f>IF(G23&gt;=10,H23,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" s="14"/>
+      <c r="K23">
+        <f>'Read me'!E8</f>
+        <v>35</v>
+      </c>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Communication Web",IF('Read me'!B4="BIOST","Microbiologie",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Ecologie appliquée",IF('Read me'!B4="BIAST","Ecologie appliquée",IF('Read me'!B4="MECA","Sciences de l'ingénieur compléments","autre")))))))</f>
         <v>Math</v>
@@ -5996,7 +7141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Python",IF('Read me'!B4="BIOST","Pharmaco-toxicologie",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Ecotoxicologie",IF('Read me'!B4="BIAST","Agro géné",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
         <v>Physique</v>
@@ -6020,7 +7165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
         <f>IF('Read me'!B4="CGSI","TIPE robotique",IF('Read me'!B4="CIR","Réseaux",IF('Read me'!B4="BIOST","Physio humaine",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Projet environnement",IF('Read me'!B4="BIAST","Génétique",IF('Read me'!B4="MECA"," ","autre")))))))</f>
         <v>TIPE robotique</v>
@@ -6045,7 +7190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>219</v>
       </c>
@@ -6058,7 +7203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>220</v>
       </c>
@@ -6067,7 +7212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>221</v>
       </c>
@@ -6076,7 +7221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>278</v>
       </c>
@@ -6085,7 +7230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>279</v>
       </c>
@@ -6094,121 +7239,141 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33">
+        <f>'Read me'!E8</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="14">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="173" priority="19">
+    <cfRule type="expression" dxfId="169" priority="19">
       <formula>B30&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="20">
+    <cfRule type="expression" dxfId="168" priority="20">
       <formula>B30&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="21">
+    <cfRule type="expression" dxfId="167" priority="21">
       <formula>B30&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="170" priority="11">
+    <cfRule type="expression" dxfId="166" priority="11">
       <formula>B32=B31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="12">
+    <cfRule type="expression" dxfId="165" priority="12">
       <formula>B32&lt;B31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="168" priority="28">
+    <cfRule type="expression" dxfId="164" priority="28">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="29">
+    <cfRule type="expression" dxfId="163" priority="29">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="30">
+    <cfRule type="expression" dxfId="162" priority="30">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="165" priority="25">
+    <cfRule type="expression" dxfId="161" priority="25">
       <formula>G9&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="26">
+    <cfRule type="expression" dxfId="160" priority="26">
       <formula>G9&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="27">
+    <cfRule type="expression" dxfId="159" priority="27">
       <formula>G9&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="162" priority="22">
+    <cfRule type="expression" dxfId="158" priority="22">
       <formula>G15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="23">
+    <cfRule type="expression" dxfId="157" priority="23">
       <formula>G15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="24">
+    <cfRule type="expression" dxfId="156" priority="24">
       <formula>G15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="159" priority="4">
+    <cfRule type="expression" dxfId="155" priority="4">
       <formula>G19&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="5">
+    <cfRule type="expression" dxfId="154" priority="5">
       <formula>G19&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="6">
+    <cfRule type="expression" dxfId="153" priority="6">
       <formula>G19&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="156" priority="1">
+    <cfRule type="expression" dxfId="152" priority="1">
       <formula>G23&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="2">
+    <cfRule type="expression" dxfId="151" priority="2">
       <formula>G23&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="3">
+    <cfRule type="expression" dxfId="150" priority="3">
       <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="153" priority="17">
+    <cfRule type="expression" dxfId="149" priority="17">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="18">
+    <cfRule type="expression" dxfId="148" priority="18">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="151" priority="15">
+    <cfRule type="expression" dxfId="147" priority="15">
       <formula>I9=H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="16">
+    <cfRule type="expression" dxfId="146" priority="16">
       <formula>I9&lt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="149" priority="13">
+    <cfRule type="expression" dxfId="145" priority="13">
       <formula>I15=H15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="14">
+    <cfRule type="expression" dxfId="144" priority="14">
       <formula>I15&lt;H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="147" priority="9">
+    <cfRule type="expression" dxfId="143" priority="9">
       <formula>I19=H19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="10">
+    <cfRule type="expression" dxfId="142" priority="10">
       <formula>I19&lt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="145" priority="7">
+    <cfRule type="expression" dxfId="141" priority="7">
       <formula>I23=H23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="8">
+    <cfRule type="expression" dxfId="140" priority="8">
       <formula>I23&lt;H23</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6302,10 +7467,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD1E8FF-BACC-4AC9-A205-46AC401C6E4D}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6319,15 +7484,17 @@
     <col min="7" max="7" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.89453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -6353,8 +7520,17 @@
       <c r="I2" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>243</v>
       </c>
@@ -6384,8 +7560,14 @@
         <f>IF(G4&gt;=10,H4,0)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="14"/>
+      <c r="K4">
+        <f>'Read me'!F8</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -6406,7 +7588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>260</v>
       </c>
@@ -6427,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -6448,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
         <v>281</v>
       </c>
@@ -6459,7 +7641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
         <v>283</v>
       </c>
@@ -6470,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -6492,7 +7674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>263</v>
       </c>
@@ -6522,8 +7704,14 @@
         <f>IF(G12&gt;=10,H12,0)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" s="14"/>
+      <c r="K12">
+        <f>'Read me'!F8</f>
+        <v>35</v>
+      </c>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -6544,7 +7732,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
         <v>262</v>
       </c>
@@ -6555,7 +7743,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -6576,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="s">
         <v>265</v>
       </c>
@@ -6587,7 +7775,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
         <v>266</v>
       </c>
@@ -6598,7 +7786,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" t="s">
         <v>267</v>
       </c>
@@ -6609,7 +7797,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
         <v>268</v>
       </c>
@@ -6620,7 +7808,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
         <f>IF('Read me'!B4&lt;&gt;"CIR","Algo et langage C","Théorie des graphes")</f>
         <v>Algo et langage C</v>
@@ -6642,7 +7830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
         <v>262</v>
       </c>
@@ -6653,7 +7841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
         <f>IF('Read me'!B4&lt;&gt;"CIR","Linux"," ")</f>
         <v>Linux</v>
@@ -6678,7 +7866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>207</v>
       </c>
@@ -6708,8 +7896,14 @@
         <f>IF(G24&gt;=10,H24,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24" s="14"/>
+      <c r="K24">
+        <f>'Read me'!F8</f>
+        <v>35</v>
+      </c>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -6730,7 +7924,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
         <v>270</v>
       </c>
@@ -6741,7 +7935,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="12" t="s">
         <v>271</v>
       </c>
@@ -6752,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -6773,7 +7967,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
         <v>273</v>
       </c>
@@ -6784,7 +7978,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
         <v>274</v>
       </c>
@@ -6795,7 +7989,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -6816,7 +8010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -6886,80 +8080,103 @@
         <v>30</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39">
+        <f>'Read me'!F8</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="14">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="143" priority="1">
+    <cfRule type="expression" dxfId="139" priority="1">
       <formula>B36&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="2">
+    <cfRule type="expression" dxfId="138" priority="2">
       <formula>B36&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="3">
+    <cfRule type="expression" dxfId="137" priority="3">
       <formula>B36&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="140" priority="13">
+    <cfRule type="expression" dxfId="136" priority="13">
       <formula>B38=B37</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="14">
+    <cfRule type="expression" dxfId="135" priority="14">
       <formula>B38&lt;B37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="138" priority="10">
+    <cfRule type="expression" dxfId="134" priority="10">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="11">
+    <cfRule type="expression" dxfId="133" priority="11">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="12">
+    <cfRule type="expression" dxfId="132" priority="12">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="135" priority="7">
+    <cfRule type="expression" dxfId="131" priority="7">
       <formula>G12&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="8">
+    <cfRule type="expression" dxfId="130" priority="8">
       <formula>G12&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="9">
+    <cfRule type="expression" dxfId="129" priority="9">
       <formula>G12&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="132" priority="4">
+    <cfRule type="expression" dxfId="128" priority="4">
       <formula>G24&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="5">
+    <cfRule type="expression" dxfId="127" priority="5">
       <formula>G24&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="6">
+    <cfRule type="expression" dxfId="126" priority="6">
       <formula>G24&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="129" priority="19">
+    <cfRule type="expression" dxfId="125" priority="19">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="20">
+    <cfRule type="expression" dxfId="124" priority="20">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="127" priority="17">
+    <cfRule type="expression" dxfId="123" priority="17">
       <formula>I12=H12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="18">
+    <cfRule type="expression" dxfId="122" priority="18">
       <formula>I12&lt;H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="125" priority="15">
+    <cfRule type="expression" dxfId="121" priority="15">
       <formula>I24=H24</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="16">
+    <cfRule type="expression" dxfId="120" priority="16">
       <formula>I24&lt;H24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7026,10 +8243,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0528F8-B7FA-4F91-A9BC-D31C0485A41D}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7043,15 +8260,17 @@
     <col min="7" max="7" width="11.05078125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.83984375" customWidth="1"/>
+    <col min="10" max="10" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
         <v>188</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -7077,8 +8296,17 @@
       <c r="I2" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>243</v>
       </c>
@@ -7108,8 +8336,14 @@
         <f>IF(G4&gt;=10,H4,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="14"/>
+      <c r="K4">
+        <f>'Read me'!G8</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -7129,7 +8363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -7149,7 +8383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -7169,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="str">
         <f>IF('Read me'!B4&lt;&gt;"CIR","Analyse de données","Outil numérique")</f>
         <v>Analyse de données</v>
@@ -7200,8 +8434,14 @@
         <f>IF(G9&gt;=10,H9,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" s="14"/>
+      <c r="K9">
+        <f>'Read me'!G8</f>
+        <v>35</v>
+      </c>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -7221,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
         <f>IF('Read me'!B4&lt;&gt;"CIR","Base de données",IF('Read me'!B3="Brest","Framework",IF('Read me'!B3="Nantes","Programmation linéaire",IF('Read me'!B3="Caen","Design pattern","autre"))))</f>
         <v>Base de données</v>
@@ -7242,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
         <f>IF('Read me'!B4&lt;&gt;"CIR","DEV WEB","Admin Linux")</f>
         <v>DEV WEB</v>
@@ -7263,7 +8503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>207</v>
       </c>
@@ -7293,8 +8533,14 @@
         <f>IF(G14&gt;=10,H14,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" s="14"/>
+      <c r="K14">
+        <f>'Read me'!G8</f>
+        <v>35</v>
+      </c>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -7314,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="s">
         <v>247</v>
       </c>
@@ -7325,7 +8571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
         <v>248</v>
       </c>
@@ -7336,7 +8582,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -7356,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
         <v>250</v>
       </c>
@@ -7367,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -7387,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -7407,7 +8653,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>252</v>
       </c>
@@ -7437,8 +8683,14 @@
         <f>IF(G23&gt;=10,H23,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" s="14"/>
+      <c r="K23">
+        <f>'Read me'!G8</f>
+        <v>35</v>
+      </c>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -7458,7 +8710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -7478,7 +8730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>254</v>
       </c>
@@ -7498,7 +8750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>255</v>
       </c>
@@ -7528,8 +8780,14 @@
         <f>IF(G28&gt;=10,H28,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" s="14"/>
+      <c r="K28">
+        <f>'Read me'!G8</f>
+        <v>35</v>
+      </c>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -7549,7 +8807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -7569,7 +8827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>256</v>
       </c>
@@ -7589,7 +8847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>257</v>
       </c>
@@ -7658,118 +8916,141 @@
         <v>30</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39">
+        <f>'Read me'!G8</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="14">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="123" priority="1">
+    <cfRule type="expression" dxfId="119" priority="1">
       <formula>B36&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="2">
+    <cfRule type="expression" dxfId="118" priority="2">
       <formula>B36&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="3">
+    <cfRule type="expression" dxfId="117" priority="3">
       <formula>B36&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="120" priority="19">
+    <cfRule type="expression" dxfId="116" priority="19">
       <formula>B38=B37</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="20">
+    <cfRule type="expression" dxfId="115" priority="20">
       <formula>B38&lt;B37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="118" priority="16">
+    <cfRule type="expression" dxfId="114" priority="16">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="17">
+    <cfRule type="expression" dxfId="113" priority="17">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="18">
+    <cfRule type="expression" dxfId="112" priority="18">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="115" priority="13">
+    <cfRule type="expression" dxfId="111" priority="13">
       <formula>G9&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="14">
+    <cfRule type="expression" dxfId="110" priority="14">
       <formula>G9&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="15">
+    <cfRule type="expression" dxfId="109" priority="15">
       <formula>G9&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="112" priority="10">
+    <cfRule type="expression" dxfId="108" priority="10">
       <formula>G14&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="11">
+    <cfRule type="expression" dxfId="107" priority="11">
       <formula>G14&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="12">
+    <cfRule type="expression" dxfId="106" priority="12">
       <formula>G14&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="109" priority="7">
+    <cfRule type="expression" dxfId="105" priority="7">
       <formula>G23&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="8">
+    <cfRule type="expression" dxfId="104" priority="8">
       <formula>G23&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="9">
+    <cfRule type="expression" dxfId="103" priority="9">
       <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="106" priority="4">
+    <cfRule type="expression" dxfId="102" priority="4">
       <formula>G28&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="5">
+    <cfRule type="expression" dxfId="101" priority="5">
       <formula>G28&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="6">
+    <cfRule type="expression" dxfId="100" priority="6">
       <formula>G28&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="103" priority="29">
+    <cfRule type="expression" dxfId="99" priority="29">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="30">
+    <cfRule type="expression" dxfId="98" priority="30">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="101" priority="27">
+    <cfRule type="expression" dxfId="97" priority="27">
       <formula>I9=H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="28">
+    <cfRule type="expression" dxfId="96" priority="28">
       <formula>I9&lt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="99" priority="21">
+    <cfRule type="expression" dxfId="95" priority="21">
       <formula>I14=H14</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="22">
+    <cfRule type="expression" dxfId="94" priority="22">
       <formula>I14&lt;H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="97" priority="25">
+    <cfRule type="expression" dxfId="93" priority="25">
       <formula>I23=H23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="26">
+    <cfRule type="expression" dxfId="92" priority="26">
       <formula>I23&lt;H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="95" priority="23">
+    <cfRule type="expression" dxfId="91" priority="23">
       <formula>I28=H28</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="24">
+    <cfRule type="expression" dxfId="90" priority="24">
       <formula>I28&lt;H28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7836,10 +9117,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B01654-16B6-483E-8D72-B459704D0CFF}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7853,15 +9134,17 @@
     <col min="7" max="7" width="10.89453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.9453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
         <v>223</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="58.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="58.5" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -7887,9 +9170,17 @@
       <c r="I2" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>192</v>
       </c>
@@ -7919,8 +9210,14 @@
         <f>IF(G4&gt;=10,H4,0)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="14"/>
+      <c r="K4">
+        <f>'Read me'!H8</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -7940,7 +9237,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" t="s">
         <v>196</v>
       </c>
@@ -7951,7 +9248,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
         <v>197</v>
       </c>
@@ -7962,7 +9259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -7982,7 +9279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -8002,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>199</v>
       </c>
@@ -8022,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
         <v>200</v>
       </c>
@@ -8033,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -8054,7 +9351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>201</v>
       </c>
@@ -8084,8 +9381,14 @@
         <f>IF(G14&gt;=10,H14,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" s="14"/>
+      <c r="K14">
+        <f>'Read me'!H8</f>
+        <v>35</v>
+      </c>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -8106,7 +9409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -8127,7 +9430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -8148,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -8169,7 +9472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>207</v>
       </c>
@@ -8199,8 +9502,14 @@
         <f>IF(G20&gt;=10,H20,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" s="14"/>
+      <c r="K20">
+        <f>'Read me'!H8</f>
+        <v>35</v>
+      </c>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -8221,7 +9530,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
         <v>210</v>
       </c>
@@ -8234,7 +9543,7 @@
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
         <v>211</v>
       </c>
@@ -8246,7 +9555,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>212</v>
       </c>
@@ -8267,7 +9576,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="s">
         <v>214</v>
       </c>
@@ -8279,7 +9588,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
         <v>215</v>
       </c>
@@ -8291,7 +9600,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" t="s">
         <v>216</v>
       </c>
@@ -8303,7 +9612,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -8323,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
         <v>217</v>
       </c>
@@ -8334,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>218</v>
       </c>
@@ -8354,7 +9663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>219</v>
       </c>
@@ -8403,80 +9712,103 @@
         <v>30</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B37">
+        <f>'Read me'!H8</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="14">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="89" priority="1">
       <formula>B34&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="2">
+    <cfRule type="expression" dxfId="88" priority="2">
       <formula>B34&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="3">
+    <cfRule type="expression" dxfId="87" priority="3">
       <formula>B34&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="90" priority="13">
+    <cfRule type="expression" dxfId="86" priority="13">
       <formula>B36=B35</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="14">
+    <cfRule type="expression" dxfId="85" priority="14">
       <formula>B36&lt;B35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="84" priority="10">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="11">
+    <cfRule type="expression" dxfId="83" priority="11">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="12">
+    <cfRule type="expression" dxfId="82" priority="12">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="85" priority="7">
+    <cfRule type="expression" dxfId="81" priority="7">
       <formula>G14&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="8">
+    <cfRule type="expression" dxfId="80" priority="8">
       <formula>G14&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="9">
+    <cfRule type="expression" dxfId="79" priority="9">
       <formula>G14&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="82" priority="4">
+    <cfRule type="expression" dxfId="78" priority="4">
       <formula>G20&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="5">
+    <cfRule type="expression" dxfId="77" priority="5">
       <formula>G20&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="6">
+    <cfRule type="expression" dxfId="76" priority="6">
       <formula>G20&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="79" priority="21">
+    <cfRule type="expression" dxfId="75" priority="21">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="22">
+    <cfRule type="expression" dxfId="74" priority="22">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="77" priority="17">
+    <cfRule type="expression" dxfId="73" priority="17">
       <formula>I14=H14</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="18">
+    <cfRule type="expression" dxfId="72" priority="18">
       <formula>I14&lt;H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="75" priority="15">
+    <cfRule type="expression" dxfId="71" priority="15">
       <formula>I20=H20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="16">
+    <cfRule type="expression" dxfId="70" priority="16">
       <formula>I20&lt;H20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8543,10 +9875,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AA0C06-A329-4A28-B37A-6AA9315D2ED6}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8560,15 +9892,17 @@
     <col min="7" max="7" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.89453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="39" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="39" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -8594,8 +9928,17 @@
       <c r="I2" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>224</v>
       </c>
@@ -8625,8 +9968,14 @@
         <f>IF(G4&gt;=10,H4,0)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="14"/>
+      <c r="K4">
+        <f>'Read me'!I8</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -8647,7 +9996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -8668,7 +10017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>226</v>
       </c>
@@ -8698,8 +10047,14 @@
         <f>IF(G8&gt;=10,H8,0)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" s="14"/>
+      <c r="K8">
+        <f>'Read me'!I8</f>
+        <v>35</v>
+      </c>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -8720,7 +10075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>166</v>
       </c>
@@ -8741,7 +10096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -8762,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -8783,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>227</v>
       </c>
@@ -8804,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>170</v>
       </c>
@@ -8834,8 +10189,14 @@
         <f>IF(G15&gt;=10,H15,0)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="14"/>
+      <c r="K15">
+        <f>'Read me'!I8</f>
+        <v>35</v>
+      </c>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>228</v>
       </c>
@@ -8905,80 +10266,103 @@
         <v>30</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23">
+        <f>'Read me'!I8</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="14">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>B20&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="2">
+    <cfRule type="expression" dxfId="68" priority="2">
       <formula>B20&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="3">
+    <cfRule type="expression" dxfId="67" priority="3">
       <formula>B20&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="70" priority="13">
+    <cfRule type="expression" dxfId="66" priority="13">
       <formula>B22=B21</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="14">
+    <cfRule type="expression" dxfId="65" priority="14">
       <formula>B22&lt;B21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="68" priority="10">
+    <cfRule type="expression" dxfId="64" priority="10">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="11">
+    <cfRule type="expression" dxfId="63" priority="11">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="12">
+    <cfRule type="expression" dxfId="62" priority="12">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="65" priority="7">
+    <cfRule type="expression" dxfId="61" priority="7">
       <formula>G8&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="8">
+    <cfRule type="expression" dxfId="60" priority="8">
       <formula>G8&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="9">
+    <cfRule type="expression" dxfId="59" priority="9">
       <formula>G8&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="62" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>G15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="5">
+    <cfRule type="expression" dxfId="57" priority="5">
       <formula>G15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="6">
+    <cfRule type="expression" dxfId="56" priority="6">
       <formula>G15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="59" priority="19">
+    <cfRule type="expression" dxfId="55" priority="19">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="54" priority="20">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="57" priority="17">
+    <cfRule type="expression" dxfId="53" priority="17">
       <formula>I8=H8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="18">
+    <cfRule type="expression" dxfId="52" priority="18">
       <formula>I8&lt;H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="55" priority="15">
+    <cfRule type="expression" dxfId="51" priority="15">
       <formula>I15=H15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="16">
+    <cfRule type="expression" dxfId="50" priority="16">
       <formula>I15&lt;H15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9826,10 +11210,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C584161-BE4A-4441-9A45-CB10429972EF}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9842,15 +11226,17 @@
     <col min="7" max="7" width="11.05078125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.83984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -9876,8 +11262,17 @@
       <c r="I2" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>231</v>
       </c>
@@ -9907,8 +11302,14 @@
         <f>IF(G4&gt;=10,H4,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="14"/>
+      <c r="K4">
+        <f>'Read me'!J8</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>171</v>
       </c>
@@ -9929,7 +11330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -9950,7 +11351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -9971,7 +11372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -9994,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -10017,7 +11418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>232</v>
       </c>
@@ -10047,8 +11448,14 @@
         <f>IF(G11&gt;=10,H11,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="14"/>
+      <c r="K11">
+        <f>'Read me'!J8</f>
+        <v>35</v>
+      </c>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -10069,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -10090,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -10111,7 +11518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>236</v>
       </c>
@@ -10141,8 +11548,14 @@
         <f>IF(G16&gt;=10,H16,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" s="14"/>
+      <c r="K16">
+        <f>'Read me'!J8</f>
+        <v>35</v>
+      </c>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -10163,7 +11576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -10184,7 +11597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -10205,7 +11618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>237</v>
       </c>
@@ -10235,8 +11648,14 @@
         <f>IF(G21&gt;=10,H21,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" s="14"/>
+      <c r="K21">
+        <f>'Read me'!J8</f>
+        <v>35</v>
+      </c>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -10257,7 +11676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>166</v>
       </c>
@@ -10278,7 +11697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -10299,7 +11718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>238</v>
       </c>
@@ -10329,8 +11748,14 @@
         <f>IF(G26&gt;=10,H26,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26" s="14"/>
+      <c r="K26">
+        <f>'Read me'!J8</f>
+        <v>35</v>
+      </c>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -10351,7 +11776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -10372,7 +11797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -10393,7 +11818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>219</v>
       </c>
@@ -10406,7 +11831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>220</v>
       </c>
@@ -10442,118 +11867,141 @@
         <v>30</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36">
+        <f>'Read me'!J8</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="14">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>B33&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>B33&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="3">
+    <cfRule type="expression" dxfId="47" priority="3">
       <formula>B33&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="50" priority="20">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>B35&lt;B34</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="21">
+    <cfRule type="expression" dxfId="45" priority="21">
       <formula>B35=B34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="48" priority="17">
+    <cfRule type="expression" dxfId="44" priority="17">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="18">
+    <cfRule type="expression" dxfId="43" priority="18">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="19">
+    <cfRule type="expression" dxfId="42" priority="19">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="45" priority="14">
+    <cfRule type="expression" dxfId="41" priority="14">
       <formula>G11&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="15">
+    <cfRule type="expression" dxfId="40" priority="15">
       <formula>G11&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="16">
+    <cfRule type="expression" dxfId="39" priority="16">
       <formula>G11&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="42" priority="10">
+    <cfRule type="expression" dxfId="38" priority="10">
       <formula>G16&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="11">
+    <cfRule type="expression" dxfId="37" priority="11">
       <formula>G16&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="12">
+    <cfRule type="expression" dxfId="36" priority="12">
       <formula>G16&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="39" priority="7">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>G21&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>G21&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="9">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>G21&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>G26&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>G26&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>G26&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="33" priority="29">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>I11&lt;H11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>I11=H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="29" priority="24">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>I16=H16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>I16&lt;H16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>I21=H21</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>I21&lt;H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>I26&lt;H26</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="23">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>I26=H26</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10619,10 +12067,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC01EE8D-135E-4C8B-85F7-572A4296D677}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10636,16 +12084,17 @@
     <col min="7" max="7" width="10.89453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.47265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.9453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="58.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="58.5" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -10671,8 +12120,17 @@
       <c r="I2" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>240</v>
       </c>
@@ -10703,8 +12161,14 @@
         <f>IF(G4&gt;=10,H4,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="14"/>
+      <c r="K4">
+        <f>'Read me'!K8</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -10727,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>241</v>
       </c>
@@ -10758,8 +12222,14 @@
         <f>IF(G7&gt;=10,H7,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" s="14"/>
+      <c r="K7">
+        <f>'Read me'!K8</f>
+        <v>35</v>
+      </c>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>242</v>
       </c>
@@ -10782,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>241</v>
       </c>
@@ -10813,8 +12283,14 @@
         <f>IF(G10&gt;=10,H10,0)</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" s="14"/>
+      <c r="K10">
+        <f>'Read me'!K8</f>
+        <v>35</v>
+      </c>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -10836,7 +12312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>219</v>
       </c>
@@ -10849,7 +12325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>220</v>
       </c>
@@ -10858,7 +12334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>221</v>
       </c>
@@ -10867,7 +12343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>278</v>
       </c>
@@ -10885,80 +12361,103 @@
         <v>30</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18">
+        <f>'Read me'!K8</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>B15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>B15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>B15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>B17=B16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>B17&lt;B16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>G7&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>G7&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>G7&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>G10&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>G10&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>G10&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>I7=H7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>I7&lt;H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>I10=H10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>I10&lt;H10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11465,10 +12964,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692F7E44-395A-44F6-BDBF-D049B14F0A26}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11482,21 +12981,22 @@
     <col min="7" max="7" width="11.1015625" customWidth="1"/>
     <col min="8" max="8" width="18.578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.89453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.89453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.3125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5234375" customWidth="1"/>
+    <col min="12" max="12" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
         <v>288</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -11522,8 +13022,17 @@
       <c r="I2" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>300</v>
       </c>
@@ -11552,8 +13061,14 @@
         <f>IF(G4&gt;=10,H4,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="14"/>
+      <c r="K4">
+        <f>'Read me'!B8</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>30</v>
       </c>
@@ -11568,7 +13083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>30</v>
       </c>
@@ -11583,7 +13098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>30</v>
       </c>
@@ -11598,7 +13113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>301</v>
       </c>
@@ -11628,8 +13143,14 @@
         <f>IF(G9&gt;=10,H9,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" s="14"/>
+      <c r="K9">
+        <f>'Read me'!B8</f>
+        <v>35</v>
+      </c>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>302</v>
       </c>
@@ -11650,7 +13171,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>30</v>
       </c>
@@ -11665,7 +13186,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>15</v>
       </c>
@@ -11680,7 +13201,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -11701,7 +13222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>303</v>
       </c>
@@ -11731,8 +13252,14 @@
         <f>IF(G15&gt;=10,H15,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="14"/>
+      <c r="K15">
+        <f>'Read me'!B8</f>
+        <v>35</v>
+      </c>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -11753,7 +13280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>304</v>
       </c>
@@ -11774,7 +13301,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>305</v>
       </c>
@@ -11804,8 +13331,14 @@
         <f>IF(G19&gt;=10,H19,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" s="14"/>
+      <c r="K19">
+        <f>'Read me'!B8</f>
+        <v>35</v>
+      </c>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -11826,7 +13359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -11847,7 +13380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>306</v>
       </c>
@@ -11877,8 +13410,14 @@
         <f>IF(G23&gt;=10,H23,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" s="14"/>
+      <c r="K23">
+        <f>'Read me'!B8</f>
+        <v>35</v>
+      </c>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Algo C expert",IF('Read me'!B4="BIOST","Biocellulaire",IF('Read me'!B4="CENT","Introduction to economics",IF('Read me'!B4="EST","Changement climatique et sociétés",IF('Read me'!B4="BIAST","Bio veg (DA)",IF('Read me'!B4="MECA","Mathématiques - compléments","autre")))))))</f>
         <v>Math</v>
@@ -11902,7 +13441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Web frontend",IF('Read me'!B4="BIOST","Histologie",IF('Read me'!B4="CENT","Leadership",IF('Read me'!B4="EST","Changement climatique : causes physiques",IF('Read me'!B4="BIAST","Physio veg (DA; nov)",IF('Read me'!B4="MECA","Sciences de l'ingénieur - compléments","autre")))))))</f>
         <v>Physique</v>
@@ -11926,7 +13465,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
         <f>IF('Read me'!B4="CGSI","Sciences de l'ingénieur",IF('Read me'!B4="CIR","Linux",IF('Read me'!B4="BIOST","Biochimie",IF('Read me'!B4="CENT","Introduction to marketing",IF('Read me'!B4="EST","Ecologie générale",IF('Read me'!B4="BIAST","Ecologie générale (FP+EST)",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
         <v>Sciences de l'ingénieur</v>
@@ -11950,7 +13489,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
         <f>IF('Read me'!B4="BIAST","botanique(FP)"," ")</f>
         <v xml:space="preserve"> </v>
@@ -11975,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>219</v>
       </c>
@@ -11988,7 +13527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>220</v>
       </c>
@@ -11997,7 +13536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>221</v>
       </c>
@@ -12006,7 +13545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>278</v>
       </c>
@@ -12025,120 +13564,140 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34">
+        <f>'Read me'!B8</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="14">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="263" priority="19">
+    <cfRule type="expression" dxfId="259" priority="19">
       <formula>B31&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="20">
+    <cfRule type="expression" dxfId="258" priority="20">
       <formula>B31&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="21">
+    <cfRule type="expression" dxfId="257" priority="21">
       <formula>B31&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="260" priority="11">
+    <cfRule type="expression" dxfId="256" priority="11">
       <formula>B33=B32</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="12">
+    <cfRule type="expression" dxfId="255" priority="12">
       <formula>B33&lt;B32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="258" priority="28">
+    <cfRule type="expression" dxfId="254" priority="28">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="29">
+    <cfRule type="expression" dxfId="253" priority="29">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="30">
+    <cfRule type="expression" dxfId="252" priority="30">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="255" priority="25">
+    <cfRule type="expression" dxfId="251" priority="25">
       <formula>G9&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="26">
+    <cfRule type="expression" dxfId="250" priority="26">
       <formula>G9&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="27">
+    <cfRule type="expression" dxfId="249" priority="27">
       <formula>G9&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="252" priority="22">
+    <cfRule type="expression" dxfId="248" priority="22">
       <formula>G15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="23">
+    <cfRule type="expression" dxfId="247" priority="23">
       <formula>G15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="24">
+    <cfRule type="expression" dxfId="246" priority="24">
       <formula>G15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="249" priority="4">
+    <cfRule type="expression" dxfId="245" priority="4">
       <formula>G19&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="5">
+    <cfRule type="expression" dxfId="244" priority="5">
       <formula>G19&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="6">
+    <cfRule type="expression" dxfId="243" priority="6">
       <formula>G19&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="246" priority="1">
+    <cfRule type="expression" dxfId="242" priority="1">
       <formula>G23&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="2">
+    <cfRule type="expression" dxfId="241" priority="2">
       <formula>G23&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="3">
+    <cfRule type="expression" dxfId="240" priority="3">
       <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="243" priority="17">
+    <cfRule type="expression" dxfId="239" priority="17">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="18">
+    <cfRule type="expression" dxfId="238" priority="18">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="241" priority="15">
+    <cfRule type="expression" dxfId="237" priority="15">
       <formula>I9=H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="16">
+    <cfRule type="expression" dxfId="236" priority="16">
       <formula>I9&lt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="239" priority="13">
+    <cfRule type="expression" dxfId="235" priority="13">
       <formula>I15=H15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="14">
+    <cfRule type="expression" dxfId="234" priority="14">
       <formula>I15&lt;H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="237" priority="9">
+    <cfRule type="expression" dxfId="233" priority="9">
       <formula>I19=H19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="10">
+    <cfRule type="expression" dxfId="232" priority="10">
       <formula>I19&lt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="235" priority="7">
+    <cfRule type="expression" dxfId="231" priority="7">
       <formula>I23=H23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="8">
+    <cfRule type="expression" dxfId="230" priority="8">
       <formula>I23&lt;H23</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12596,10 +14155,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6309F6D-42B2-4200-ADA8-2D3AF2A4190D}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12613,15 +14172,17 @@
     <col min="7" max="7" width="10.89453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="58.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="58.5" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -12647,8 +14208,17 @@
       <c r="I2" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>300</v>
       </c>
@@ -12677,8 +14247,14 @@
         <f>IF(G4&gt;=10,H4,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="14"/>
+      <c r="K4">
+        <f>'Read me'!C8</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>30</v>
       </c>
@@ -12693,7 +14269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>30</v>
       </c>
@@ -12708,7 +14284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>30</v>
       </c>
@@ -12723,7 +14299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>301</v>
       </c>
@@ -12753,8 +14329,14 @@
         <f>IF(G9&gt;=10,H9,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" s="14"/>
+      <c r="K9">
+        <f>'Read me'!C8</f>
+        <v>35</v>
+      </c>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>302</v>
       </c>
@@ -12775,7 +14357,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>30</v>
       </c>
@@ -12790,7 +14372,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>15</v>
       </c>
@@ -12805,7 +14387,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -12826,7 +14408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>201</v>
       </c>
@@ -12856,8 +14438,14 @@
         <f>IF(G15&gt;=10,H15,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="14"/>
+      <c r="K15">
+        <f>'Read me'!C8</f>
+        <v>35</v>
+      </c>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -12878,7 +14466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -12899,7 +14487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>305</v>
       </c>
@@ -12929,8 +14517,14 @@
         <f>IF(G19&gt;=10,H19,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" s="14"/>
+      <c r="K19">
+        <f>'Read me'!C8</f>
+        <v>35</v>
+      </c>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -12951,7 +14545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -12972,7 +14566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>306</v>
       </c>
@@ -13002,8 +14596,14 @@
         <f>IF(G23&gt;=10,H23,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" s="14"/>
+      <c r="K23">
+        <f>'Read me'!C8</f>
+        <v>35</v>
+      </c>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Algo C expert",IF('Read me'!B4="BIOST","Physio humaine",IF('Read me'!B4="CENT","Les fondamentaux de la relation client 4.0",IF('Read me'!B4="EST","Environnement et sociéré",IF('Read me'!B4="BIAST","Biocell",IF('Read me'!B4="MECA","Mathématiques - compléments","autre")))))))</f>
         <v>Math</v>
@@ -13027,7 +14627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Web frontend",IF('Read me'!B4="BIOST","Anatomie",IF('Read me'!B4="CENT","Histoire de l'économie et évolution des modèles économiques",IF('Read me'!B4="EST","Chimie",IF('Read me'!B4="BIAST","Biochimie",IF('Read me'!B4="MECA","Sciences de l'ingénieur - compléments","autre")))))))</f>
         <v>Physique</v>
@@ -13051,7 +14651,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
         <f>IF('Read me'!B4="CGSI","Sciences de l'ingénieur",IF('Read me'!B4="CIR","Réseaux",IF('Read me'!B4="BIOST","Chimie",IF('Read me'!B4="CENT","Theory of orga",IF('Read me'!B4="EST","Technologie pour l'environnement",IF('Read me'!B4="BIAST","Chimie",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
         <v>Sciences de l'ingénieur</v>
@@ -13075,7 +14675,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
         <f>IF('Read me'!B4="CENT","Introduction to entrepreneurship",IF('Read me'!B4="BIAST","Physio veg"," "))</f>
         <v xml:space="preserve"> </v>
@@ -13100,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>219</v>
       </c>
@@ -13113,7 +14713,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>220</v>
       </c>
@@ -13122,7 +14722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>221</v>
       </c>
@@ -13131,7 +14731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>278</v>
       </c>
@@ -13150,120 +14750,140 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34">
+        <f>'Read me'!C8</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="14">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="233" priority="19">
+    <cfRule type="expression" dxfId="229" priority="19">
       <formula>B31&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="20">
+    <cfRule type="expression" dxfId="228" priority="20">
       <formula>B31&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="21">
+    <cfRule type="expression" dxfId="227" priority="21">
       <formula>B31&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="230" priority="11">
+    <cfRule type="expression" dxfId="226" priority="11">
       <formula>B33=B32</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="12">
+    <cfRule type="expression" dxfId="225" priority="12">
       <formula>B33&lt;B32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="228" priority="28">
+    <cfRule type="expression" dxfId="224" priority="28">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="29">
+    <cfRule type="expression" dxfId="223" priority="29">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="30">
+    <cfRule type="expression" dxfId="222" priority="30">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="225" priority="25">
+    <cfRule type="expression" dxfId="221" priority="25">
       <formula>G9&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="26">
+    <cfRule type="expression" dxfId="220" priority="26">
       <formula>G9&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="27">
+    <cfRule type="expression" dxfId="219" priority="27">
       <formula>G9&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="222" priority="22">
+    <cfRule type="expression" dxfId="218" priority="22">
       <formula>G15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="23">
+    <cfRule type="expression" dxfId="217" priority="23">
       <formula>G15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="24">
+    <cfRule type="expression" dxfId="216" priority="24">
       <formula>G15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="219" priority="4">
+    <cfRule type="expression" dxfId="215" priority="4">
       <formula>G19&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="5">
+    <cfRule type="expression" dxfId="214" priority="5">
       <formula>G19&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="6">
+    <cfRule type="expression" dxfId="213" priority="6">
       <formula>G19&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="216" priority="1">
+    <cfRule type="expression" dxfId="212" priority="1">
       <formula>G23&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="2">
+    <cfRule type="expression" dxfId="211" priority="2">
       <formula>G23&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="3">
+    <cfRule type="expression" dxfId="210" priority="3">
       <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="213" priority="17">
+    <cfRule type="expression" dxfId="209" priority="17">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="18">
+    <cfRule type="expression" dxfId="208" priority="18">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="211" priority="15">
+    <cfRule type="expression" dxfId="207" priority="15">
       <formula>I9=H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="16">
+    <cfRule type="expression" dxfId="206" priority="16">
       <formula>I9&lt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="209" priority="13">
+    <cfRule type="expression" dxfId="205" priority="13">
       <formula>I15=H15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="14">
+    <cfRule type="expression" dxfId="204" priority="14">
       <formula>I15&lt;H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="207" priority="9">
+    <cfRule type="expression" dxfId="203" priority="9">
       <formula>I19=H19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="10">
+    <cfRule type="expression" dxfId="202" priority="10">
       <formula>I19&lt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="205" priority="7">
+    <cfRule type="expression" dxfId="201" priority="7">
       <formula>I23=H23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="8">
+    <cfRule type="expression" dxfId="200" priority="8">
       <formula>I23&lt;H23</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13329,10 +14949,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7320E1C8-E225-4D19-B667-0CAC3DACB6B5}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="A4:J34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13346,15 +14966,17 @@
     <col min="7" max="7" width="10.89453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="1">
       <c r="A1" s="6" t="s">
         <v>286</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>189</v>
       </c>
@@ -13380,8 +15002,17 @@
       <c r="I2" s="9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>300</v>
       </c>
@@ -13410,8 +15041,14 @@
         <f>IF(G4&gt;=10,H4,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="14"/>
+      <c r="K4">
+        <f>'Read me'!D8</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>30</v>
       </c>
@@ -13426,7 +15063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>30</v>
       </c>
@@ -13441,7 +15078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>30</v>
       </c>
@@ -13456,7 +15093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>301</v>
       </c>
@@ -13486,8 +15123,14 @@
         <f>IF(G9&gt;=10,H9,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" s="14"/>
+      <c r="K9">
+        <f>'Read me'!D8</f>
+        <v>35</v>
+      </c>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>302</v>
       </c>
@@ -13508,7 +15151,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>30</v>
       </c>
@@ -13523,7 +15166,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>15</v>
       </c>
@@ -13538,7 +15181,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -13559,7 +15202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>201</v>
       </c>
@@ -13588,8 +15231,14 @@
         <f>IF(G15&gt;=10,H15,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="14"/>
+      <c r="K15">
+        <f>'Read me'!D8</f>
+        <v>35</v>
+      </c>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
         <f>IF('Read me'!B4="CIR","Algo C++","Python")</f>
         <v>Python</v>
@@ -13611,7 +15260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -13632,7 +15281,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>305</v>
       </c>
@@ -13662,8 +15311,14 @@
         <f>IF(G19&gt;=10,H19,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" s="14"/>
+      <c r="K19">
+        <f>'Read me'!D8</f>
+        <v>35</v>
+      </c>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -13684,7 +15339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -13705,7 +15360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>306</v>
       </c>
@@ -13735,8 +15390,14 @@
         <f>IF(G23&gt;=10,H23,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" s="14"/>
+      <c r="K23">
+        <f>'Read me'!D8</f>
+        <v>35</v>
+      </c>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f>IF('Read me'!B4="CGSI","Math",IF('Read me'!B4="CIR","Algo avancé",IF('Read me'!B4="BIOST","Biochimie métabolique",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Numérique et développement durable",IF('Read me'!B4="BIAST","Géologie",IF('Read me'!B4="MECA","Sciences de l'ingénieur compléments","autre")))))))</f>
         <v>Math</v>
@@ -13760,7 +15421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f>IF('Read me'!B4="CGSI","Physique",IF('Read me'!B4="CIR","Serveur Web",IF('Read me'!B4="BIOST","Génétique humaine",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","Ressources naturelles",IF('Read me'!B4="BIAST","Pédo",IF('Read me'!B4="MECA","Mécanique","autre")))))))</f>
         <v>Physique</v>
@@ -13784,7 +15445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
         <f>IF('Read me'!B4="CGSI","Sciences de l'ingénieur",IF('Read me'!B4="CIR","Web backend",IF('Read me'!B4="BIOST","Physio humaine",IF('Read me'!B4="CENT"," ",IF('Read me'!B4="EST","SIG",IF('Read me'!B4="BIAST","Agro technique",IF('Read me'!B4="MECA"," ","autre")))))))</f>
         <v>Sciences de l'ingénieur</v>
@@ -13809,7 +15470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
         <f>IF('Read me'!B4="CIR","BDD",IF('Read me'!B4="EST","Biocellulaire"," "))</f>
         <v xml:space="preserve"> </v>
@@ -13834,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>219</v>
       </c>
@@ -13847,7 +15508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>220</v>
       </c>
@@ -13856,7 +15517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>221</v>
       </c>
@@ -13865,7 +15526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>278</v>
       </c>
@@ -13884,120 +15545,140 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34">
+        <f>'Read me'!D8</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="14">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="203" priority="19">
+    <cfRule type="expression" dxfId="199" priority="19">
       <formula>B31&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="20">
+    <cfRule type="expression" dxfId="198" priority="20">
       <formula>B31&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="21">
+    <cfRule type="expression" dxfId="197" priority="21">
       <formula>B31&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="200" priority="11">
+    <cfRule type="expression" dxfId="196" priority="11">
       <formula>B33=B32</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="12">
+    <cfRule type="expression" dxfId="195" priority="12">
       <formula>B33&lt;B32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="198" priority="28">
+    <cfRule type="expression" dxfId="194" priority="28">
       <formula>G4&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="29">
+    <cfRule type="expression" dxfId="193" priority="29">
       <formula>G4&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="30">
+    <cfRule type="expression" dxfId="192" priority="30">
       <formula>G4&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="195" priority="25">
+    <cfRule type="expression" dxfId="191" priority="25">
       <formula>G9&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="26">
+    <cfRule type="expression" dxfId="190" priority="26">
       <formula>G9&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="27">
+    <cfRule type="expression" dxfId="189" priority="27">
       <formula>G9&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="192" priority="22">
+    <cfRule type="expression" dxfId="188" priority="22">
       <formula>G15&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="23">
+    <cfRule type="expression" dxfId="187" priority="23">
       <formula>G15&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="24">
+    <cfRule type="expression" dxfId="186" priority="24">
       <formula>G15&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="189" priority="4">
+    <cfRule type="expression" dxfId="185" priority="4">
       <formula>G19&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="5">
+    <cfRule type="expression" dxfId="184" priority="5">
       <formula>G19&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="6">
+    <cfRule type="expression" dxfId="183" priority="6">
       <formula>G19&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="186" priority="1">
+    <cfRule type="expression" dxfId="182" priority="1">
       <formula>G23&gt;11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="2">
+    <cfRule type="expression" dxfId="181" priority="2">
       <formula>G23&gt;=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="3">
+    <cfRule type="expression" dxfId="180" priority="3">
       <formula>G23&lt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="183" priority="17">
+    <cfRule type="expression" dxfId="179" priority="17">
       <formula>I4=H4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="18">
+    <cfRule type="expression" dxfId="178" priority="18">
       <formula>I4&lt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="181" priority="15">
+    <cfRule type="expression" dxfId="177" priority="15">
       <formula>I9=H9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="16">
+    <cfRule type="expression" dxfId="176" priority="16">
       <formula>I9&lt;H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="179" priority="13">
+    <cfRule type="expression" dxfId="175" priority="13">
       <formula>I15=H15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="14">
+    <cfRule type="expression" dxfId="174" priority="14">
       <formula>I15&lt;H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="177" priority="9">
+    <cfRule type="expression" dxfId="173" priority="9">
       <formula>I19=H19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="10">
+    <cfRule type="expression" dxfId="172" priority="10">
       <formula>I19&lt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="175" priority="7">
+    <cfRule type="expression" dxfId="171" priority="7">
       <formula>I23=H23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="8">
+    <cfRule type="expression" dxfId="170" priority="8">
       <formula>I23&lt;H23</formula>
     </cfRule>
   </conditionalFormatting>
